--- a/benchmarks/lester_allocators/lester_results.xlsx
+++ b/benchmarks/lester_allocators/lester_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" tabRatio="594" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" tabRatio="594" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="641">
   <si>
     <t>DS1: vector&lt;int&gt;</t>
   </si>
@@ -299,9 +299,6 @@
     <t>The huge numbers above indicate that the benchmark took super duper long to complete. In fact, it's probably still running now!</t>
   </si>
   <si>
-    <t>(Without Allocators)</t>
-  </si>
-  <si>
     <t>Problem Size 2^21 Without Allocators (Table 18) -ve shuffle</t>
   </si>
   <si>
@@ -1950,6 +1947,12 @@
   </si>
   <si>
     <t>(New Allocator scheme - with d_allocator_p)</t>
+  </si>
+  <si>
+    <t>(Ratio of new allocator scheme / old allocator scheme)</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -2272,8 +2275,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5231,8 +5234,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BO99"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5361,7 +5364,7 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -5385,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="U2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W2" t="s">
         <v>17</v>
@@ -5409,7 +5412,7 @@
         <v>17</v>
       </c>
       <c r="AE2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG2" t="s">
         <v>17</v>
@@ -5637,22 +5640,22 @@
         <v>0</v>
       </c>
       <c r="X5" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y5" t="s">
         <v>260</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>261</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>262</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>263</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>264</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>265</v>
       </c>
       <c r="AF5" t="s">
         <v>19</v>
@@ -5661,22 +5664,22 @@
         <v>0</v>
       </c>
       <c r="AH5" t="s">
+        <v>457</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>458</v>
       </c>
-      <c r="AI5" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>459</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>460</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>461</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -5735,22 +5738,22 @@
         <v>0</v>
       </c>
       <c r="X6" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y6" t="s">
         <v>266</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>267</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>268</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>269</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>270</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>271</v>
       </c>
       <c r="AF6" t="s">
         <v>20</v>
@@ -5759,22 +5762,22 @@
         <v>0</v>
       </c>
       <c r="AH6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI6" t="s">
         <v>463</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>464</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>465</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>466</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>467</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -5833,22 +5836,22 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y7" t="s">
         <v>272</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>273</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>274</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>275</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>276</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>277</v>
       </c>
       <c r="AF7" t="s">
         <v>21</v>
@@ -5857,22 +5860,22 @@
         <v>0</v>
       </c>
       <c r="AH7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>469</v>
       </c>
-      <c r="AI7" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>470</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>471</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>472</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -5931,22 +5934,22 @@
         <v>0</v>
       </c>
       <c r="X8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y8" t="s">
         <v>278</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>279</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>280</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>281</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>282</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>283</v>
       </c>
       <c r="AF8" t="s">
         <v>22</v>
@@ -5955,22 +5958,22 @@
         <v>0</v>
       </c>
       <c r="AH8" t="s">
+        <v>473</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>474</v>
       </c>
-      <c r="AI8" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>475</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>476</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>477</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -6029,22 +6032,22 @@
         <v>0</v>
       </c>
       <c r="X9" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y9" t="s">
         <v>284</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>285</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>286</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>287</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>288</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>289</v>
       </c>
       <c r="AF9" t="s">
         <v>23</v>
@@ -6053,22 +6056,22 @@
         <v>0</v>
       </c>
       <c r="AH9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>479</v>
       </c>
-      <c r="AI9" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>480</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>481</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>482</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -6127,22 +6130,22 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y10" t="s">
         <v>290</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>291</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>292</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>293</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>294</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>295</v>
       </c>
       <c r="AF10" t="s">
         <v>24</v>
@@ -6151,22 +6154,22 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>484</v>
       </c>
-      <c r="AI10" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>485</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>486</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>487</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -6204,19 +6207,19 @@
         <v>165034</v>
       </c>
       <c r="O11" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" t="s">
         <v>100</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>102</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>103</v>
-      </c>
-      <c r="S11" t="s">
-        <v>104</v>
       </c>
       <c r="V11" t="s">
         <v>25</v>
@@ -6225,22 +6228,22 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y11" t="s">
         <v>296</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>297</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>298</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>299</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>300</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>301</v>
       </c>
       <c r="AF11" t="s">
         <v>25</v>
@@ -6249,22 +6252,22 @@
         <v>0</v>
       </c>
       <c r="AH11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>489</v>
       </c>
-      <c r="AI11" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>490</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>491</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>492</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -6299,22 +6302,22 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
         <v>105</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>106</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>107</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>108</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>109</v>
-      </c>
-      <c r="S12" t="s">
-        <v>110</v>
       </c>
       <c r="V12" t="s">
         <v>26</v>
@@ -6323,22 +6326,22 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y12" t="s">
         <v>302</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>303</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>304</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>305</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>306</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>307</v>
       </c>
       <c r="AF12" t="s">
         <v>26</v>
@@ -6347,22 +6350,22 @@
         <v>0</v>
       </c>
       <c r="AH12" t="s">
+        <v>493</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>494</v>
       </c>
-      <c r="AI12" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>495</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>496</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>497</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -6397,22 +6400,22 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
         <v>111</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>112</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>113</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>114</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>115</v>
-      </c>
-      <c r="S13" t="s">
-        <v>116</v>
       </c>
       <c r="V13" t="s">
         <v>27</v>
@@ -6421,22 +6424,22 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y13" t="s">
         <v>308</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>309</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>310</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>311</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>312</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>313</v>
       </c>
       <c r="AF13" t="s">
         <v>27</v>
@@ -6445,22 +6448,22 @@
         <v>0</v>
       </c>
       <c r="AH13" t="s">
+        <v>498</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>499</v>
       </c>
-      <c r="AI13" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>500</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>501</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>502</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -6495,22 +6498,22 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
         <v>117</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>118</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" t="s">
-        <v>122</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>120</v>
-      </c>
-      <c r="S14" t="s">
-        <v>121</v>
       </c>
       <c r="V14" t="s">
         <v>28</v>
@@ -6519,22 +6522,22 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y14" t="s">
         <v>314</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>315</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>316</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>317</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>318</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>319</v>
       </c>
       <c r="AF14" t="s">
         <v>28</v>
@@ -6543,22 +6546,22 @@
         <v>0</v>
       </c>
       <c r="AH14" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>504</v>
       </c>
-      <c r="AI14" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>505</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>506</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>507</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -6593,22 +6596,22 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
         <v>123</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>124</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>125</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>126</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>127</v>
-      </c>
-      <c r="S15" t="s">
-        <v>128</v>
       </c>
       <c r="V15" t="s">
         <v>29</v>
@@ -6617,22 +6620,22 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y15" t="s">
         <v>320</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>321</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>322</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>323</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>324</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>325</v>
       </c>
       <c r="AF15" t="s">
         <v>29</v>
@@ -6641,22 +6644,22 @@
         <v>0</v>
       </c>
       <c r="AH15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>509</v>
       </c>
-      <c r="AI15" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>510</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>511</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>512</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -6780,7 +6783,7 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -6804,7 +6807,7 @@
         <v>17</v>
       </c>
       <c r="U19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W19" t="s">
         <v>17</v>
@@ -6828,7 +6831,7 @@
         <v>17</v>
       </c>
       <c r="AE19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG19" t="s">
         <v>17</v>
@@ -6854,7 +6857,7 @@
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -6866,7 +6869,7 @@
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
         <v>18</v>
@@ -6878,7 +6881,7 @@
         <v>18</v>
       </c>
       <c r="U20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y20" t="s">
         <v>18</v>
@@ -6890,7 +6893,7 @@
         <v>18</v>
       </c>
       <c r="AE20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI20" t="s">
         <v>18</v>
@@ -7035,19 +7038,19 @@
         <v>275404067</v>
       </c>
       <c r="O22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" t="s">
         <v>129</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>130</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>131</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>132</v>
-      </c>
-      <c r="S22" t="s">
-        <v>133</v>
       </c>
       <c r="V22" t="s">
         <v>19</v>
@@ -7056,22 +7059,22 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y22" t="s">
         <v>326</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>327</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>328</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>329</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>330</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>331</v>
       </c>
       <c r="AF22" t="s">
         <v>19</v>
@@ -7080,22 +7083,22 @@
         <v>0</v>
       </c>
       <c r="AH22" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>514</v>
       </c>
-      <c r="AI22" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>515</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>516</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>517</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
@@ -7130,22 +7133,22 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" t="s">
         <v>134</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>135</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>136</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>137</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>138</v>
-      </c>
-      <c r="S23" t="s">
-        <v>139</v>
       </c>
       <c r="V23" t="s">
         <v>20</v>
@@ -7154,22 +7157,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y23" t="s">
         <v>332</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>333</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>334</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>335</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>336</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>337</v>
       </c>
       <c r="AF23" t="s">
         <v>20</v>
@@ -7178,22 +7181,22 @@
         <v>0</v>
       </c>
       <c r="AH23" t="s">
+        <v>518</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>519</v>
       </c>
-      <c r="AI23" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>520</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>521</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>522</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
@@ -7228,22 +7231,22 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
+        <v>139</v>
+      </c>
+      <c r="O24" t="s">
         <v>140</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>141</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>142</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>143</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>144</v>
-      </c>
-      <c r="S24" t="s">
-        <v>145</v>
       </c>
       <c r="V24" t="s">
         <v>21</v>
@@ -7252,22 +7255,22 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y24" t="s">
         <v>338</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>339</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>340</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>341</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>342</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>343</v>
       </c>
       <c r="AF24" t="s">
         <v>21</v>
@@ -7276,22 +7279,22 @@
         <v>0</v>
       </c>
       <c r="AH24" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>524</v>
       </c>
-      <c r="AI24" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>525</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>526</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>527</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -7329,19 +7332,19 @@
         <v>269754667</v>
       </c>
       <c r="O25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" t="s">
         <v>146</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>147</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>148</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>149</v>
-      </c>
-      <c r="S25" t="s">
-        <v>150</v>
       </c>
       <c r="V25" t="s">
         <v>22</v>
@@ -7350,22 +7353,22 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y25" t="s">
         <v>344</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>345</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>346</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>347</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>348</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>349</v>
       </c>
       <c r="AF25" t="s">
         <v>22</v>
@@ -7374,22 +7377,22 @@
         <v>0</v>
       </c>
       <c r="AH25" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>564</v>
       </c>
-      <c r="AI25" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>565</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>566</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>567</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -7427,19 +7430,19 @@
         <v>287990128</v>
       </c>
       <c r="O26" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
         <v>151</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>152</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>153</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>154</v>
-      </c>
-      <c r="S26" t="s">
-        <v>155</v>
       </c>
       <c r="V26" t="s">
         <v>23</v>
@@ -7448,22 +7451,22 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y26" t="s">
         <v>350</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>351</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>352</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>353</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>354</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>355</v>
       </c>
       <c r="AF26" t="s">
         <v>23</v>
@@ -7472,22 +7475,22 @@
         <v>0</v>
       </c>
       <c r="AH26" t="s">
+        <v>528</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>529</v>
       </c>
-      <c r="AI26" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>530</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>531</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>532</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
@@ -7522,22 +7525,22 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
+        <v>155</v>
+      </c>
+      <c r="O27" t="s">
         <v>156</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>157</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>158</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>159</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>160</v>
-      </c>
-      <c r="S27" t="s">
-        <v>161</v>
       </c>
       <c r="V27" t="s">
         <v>24</v>
@@ -7546,22 +7549,22 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y27" t="s">
         <v>356</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>357</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>358</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>359</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>360</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>361</v>
       </c>
       <c r="AF27" t="s">
         <v>24</v>
@@ -7570,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="AH27" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>534</v>
       </c>
-      <c r="AI27" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>535</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>536</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>537</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -7620,22 +7623,22 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O28" t="s">
         <v>162</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>163</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>164</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>165</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>166</v>
-      </c>
-      <c r="S28" t="s">
-        <v>167</v>
       </c>
       <c r="V28" t="s">
         <v>25</v>
@@ -7644,22 +7647,22 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y28" t="s">
         <v>362</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>363</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>364</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>365</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>366</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>367</v>
       </c>
       <c r="AF28" t="s">
         <v>25</v>
@@ -7668,22 +7671,22 @@
         <v>0</v>
       </c>
       <c r="AH28" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>539</v>
       </c>
-      <c r="AI28" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>540</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>541</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>542</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -7718,22 +7721,22 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29" t="s">
         <v>168</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>169</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>171</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>172</v>
-      </c>
-      <c r="S29" t="s">
-        <v>173</v>
       </c>
       <c r="V29" t="s">
         <v>26</v>
@@ -7742,22 +7745,22 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y29" t="s">
         <v>368</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>369</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>370</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>371</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>372</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>373</v>
       </c>
       <c r="AF29" t="s">
         <v>26</v>
@@ -7766,22 +7769,22 @@
         <v>0</v>
       </c>
       <c r="AH29" t="s">
+        <v>543</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>544</v>
       </c>
-      <c r="AI29" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>545</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>546</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>547</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -7816,22 +7819,22 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
+        <v>173</v>
+      </c>
+      <c r="O30" t="s">
         <v>174</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>175</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>176</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>177</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>178</v>
-      </c>
-      <c r="S30" t="s">
-        <v>179</v>
       </c>
       <c r="V30" t="s">
         <v>27</v>
@@ -7840,22 +7843,22 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y30" t="s">
         <v>374</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>375</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>376</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>377</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>378</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>379</v>
       </c>
       <c r="AF30" t="s">
         <v>27</v>
@@ -7864,22 +7867,22 @@
         <v>0</v>
       </c>
       <c r="AH30" t="s">
+        <v>548</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>549</v>
       </c>
-      <c r="AI30" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>550</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>551</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>552</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -7914,22 +7917,22 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O31" t="s">
         <v>180</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>181</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>183</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>184</v>
-      </c>
-      <c r="S31" t="s">
-        <v>185</v>
       </c>
       <c r="V31" t="s">
         <v>28</v>
@@ -7938,22 +7941,22 @@
         <v>0</v>
       </c>
       <c r="X31" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y31" t="s">
         <v>380</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>381</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AB31" t="s">
         <v>383</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>384</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>385</v>
       </c>
       <c r="AF31" t="s">
         <v>28</v>
@@ -7962,22 +7965,22 @@
         <v>0</v>
       </c>
       <c r="AH31" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>554</v>
       </c>
-      <c r="AI31" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>555</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31" t="s">
         <v>556</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>557</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -8012,22 +8015,22 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
+        <v>185</v>
+      </c>
+      <c r="O32" t="s">
         <v>186</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>187</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>188</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>189</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>190</v>
-      </c>
-      <c r="S32" t="s">
-        <v>191</v>
       </c>
       <c r="V32" t="s">
         <v>29</v>
@@ -8036,22 +8039,22 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y32" t="s">
         <v>386</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>387</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>388</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>389</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>390</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>391</v>
       </c>
       <c r="AF32" t="s">
         <v>29</v>
@@ -8060,22 +8063,22 @@
         <v>0</v>
       </c>
       <c r="AH32" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>559</v>
       </c>
-      <c r="AI32" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="AK32" s="2" t="s">
+      <c r="AL32" t="s">
         <v>561</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>562</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
@@ -8199,7 +8202,7 @@
         <v>17</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
@@ -8223,7 +8226,7 @@
         <v>17</v>
       </c>
       <c r="U36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W36" t="s">
         <v>17</v>
@@ -8247,7 +8250,7 @@
         <v>17</v>
       </c>
       <c r="AE36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG36" t="s">
         <v>17</v>
@@ -8273,7 +8276,7 @@
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -8285,7 +8288,7 @@
         <v>18</v>
       </c>
       <c r="K37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O37" t="s">
         <v>18</v>
@@ -8297,7 +8300,7 @@
         <v>18</v>
       </c>
       <c r="U37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y37" t="s">
         <v>18</v>
@@ -8309,7 +8312,7 @@
         <v>18</v>
       </c>
       <c r="AE37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI37" t="s">
         <v>18</v>
@@ -8451,22 +8454,22 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O39" t="s">
+        <v>193</v>
+      </c>
+      <c r="P39" t="s">
         <v>194</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>195</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>196</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>197</v>
-      </c>
-      <c r="S39" t="s">
-        <v>198</v>
       </c>
       <c r="V39" t="s">
         <v>19</v>
@@ -8475,22 +8478,22 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y39" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z39" t="s">
         <v>392</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>393</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>394</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>395</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>396</v>
       </c>
       <c r="AF39" t="s">
         <v>19</v>
@@ -8499,22 +8502,22 @@
         <v>0</v>
       </c>
       <c r="AH39" t="s">
+        <v>568</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>569</v>
       </c>
-      <c r="AI39" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ39" t="s">
+      <c r="AK39" t="s">
         <v>570</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AL39" t="s">
         <v>571</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
         <v>572</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
@@ -8549,22 +8552,22 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
+        <v>198</v>
+      </c>
+      <c r="O40" t="s">
         <v>199</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>200</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>201</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>202</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>203</v>
-      </c>
-      <c r="S40" t="s">
-        <v>204</v>
       </c>
       <c r="V40" t="s">
         <v>20</v>
@@ -8573,22 +8576,22 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y40" t="s">
         <v>397</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>398</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>399</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>400</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>401</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>402</v>
       </c>
       <c r="AF40" t="s">
         <v>20</v>
@@ -8597,22 +8600,22 @@
         <v>0</v>
       </c>
       <c r="AH40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>574</v>
       </c>
-      <c r="AI40" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ40" t="s">
+      <c r="AK40" t="s">
         <v>575</v>
       </c>
-      <c r="AK40" t="s">
+      <c r="AL40" t="s">
         <v>576</v>
       </c>
-      <c r="AL40" t="s">
+      <c r="AM40" t="s">
         <v>577</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
@@ -8647,22 +8650,22 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
+        <v>204</v>
+      </c>
+      <c r="O41" t="s">
         <v>205</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>206</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>207</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>208</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>209</v>
-      </c>
-      <c r="S41" t="s">
-        <v>210</v>
       </c>
       <c r="V41" t="s">
         <v>21</v>
@@ -8671,22 +8674,22 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y41" t="s">
         <v>403</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>404</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>405</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>406</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>407</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>408</v>
       </c>
       <c r="AF41" t="s">
         <v>21</v>
@@ -8695,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="AH41" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>579</v>
       </c>
-      <c r="AI41" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ41" t="s">
+      <c r="AK41" t="s">
         <v>580</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AL41" t="s">
         <v>581</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AM41" t="s">
         <v>582</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
@@ -8745,22 +8748,22 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
+        <v>210</v>
+      </c>
+      <c r="O42" t="s">
         <v>211</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>212</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>213</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>214</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>215</v>
-      </c>
-      <c r="S42" t="s">
-        <v>216</v>
       </c>
       <c r="V42" t="s">
         <v>22</v>
@@ -8769,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y42" t="s">
         <v>409</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>410</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>411</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>412</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>413</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>414</v>
       </c>
       <c r="AF42" t="s">
         <v>22</v>
@@ -8793,22 +8796,22 @@
         <v>0</v>
       </c>
       <c r="AH42" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>584</v>
       </c>
-      <c r="AI42" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ42" t="s">
+      <c r="AK42" t="s">
         <v>585</v>
       </c>
-      <c r="AK42" t="s">
+      <c r="AL42" t="s">
         <v>586</v>
       </c>
-      <c r="AL42" t="s">
+      <c r="AM42" t="s">
         <v>587</v>
-      </c>
-      <c r="AM42" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -8843,22 +8846,22 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
+        <v>216</v>
+      </c>
+      <c r="O43" t="s">
         <v>217</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>218</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>219</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>220</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>221</v>
-      </c>
-      <c r="S43" t="s">
-        <v>222</v>
       </c>
       <c r="V43" t="s">
         <v>23</v>
@@ -8867,22 +8870,22 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y43" t="s">
         <v>415</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>416</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>417</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>418</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>419</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>420</v>
       </c>
       <c r="AF43" t="s">
         <v>23</v>
@@ -8891,22 +8894,22 @@
         <v>0</v>
       </c>
       <c r="AH43" t="s">
+        <v>588</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>589</v>
       </c>
-      <c r="AI43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ43" t="s">
+      <c r="AK43" t="s">
         <v>590</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AL43" t="s">
         <v>591</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AM43" t="s">
         <v>592</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -8941,46 +8944,46 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
+        <v>222</v>
+      </c>
+      <c r="O44" t="s">
         <v>223</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>224</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>225</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>226</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>227</v>
       </c>
-      <c r="S44" t="s">
-        <v>228</v>
-      </c>
       <c r="V44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y44" t="s">
         <v>421</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>422</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>423</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>424</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>425</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>426</v>
       </c>
       <c r="AF44" t="s">
         <v>24</v>
@@ -8989,22 +8992,22 @@
         <v>0</v>
       </c>
       <c r="AH44" t="s">
+        <v>593</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>594</v>
       </c>
-      <c r="AI44" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ44" t="s">
+      <c r="AK44" t="s">
         <v>595</v>
       </c>
-      <c r="AK44" t="s">
+      <c r="AL44" t="s">
         <v>596</v>
       </c>
-      <c r="AL44" t="s">
+      <c r="AM44" t="s">
         <v>597</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -9039,22 +9042,22 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
+        <v>228</v>
+      </c>
+      <c r="O45" t="s">
         <v>229</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>230</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>231</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>232</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>233</v>
-      </c>
-      <c r="S45" t="s">
-        <v>234</v>
       </c>
       <c r="V45" t="s">
         <v>25</v>
@@ -9063,22 +9066,22 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y45" t="s">
         <v>427</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>428</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>429</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>430</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AC45" t="s">
         <v>431</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>432</v>
       </c>
       <c r="AF45" t="s">
         <v>25</v>
@@ -9087,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="AH45" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ45" t="s">
         <v>599</v>
       </c>
-      <c r="AI45" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ45" t="s">
+      <c r="AK45" t="s">
         <v>600</v>
       </c>
-      <c r="AK45" t="s">
+      <c r="AL45" t="s">
         <v>601</v>
       </c>
-      <c r="AL45" t="s">
+      <c r="AM45" t="s">
         <v>602</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -9137,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
+        <v>234</v>
+      </c>
+      <c r="O46" t="s">
         <v>235</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>236</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>237</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>238</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>239</v>
-      </c>
-      <c r="S46" t="s">
-        <v>240</v>
       </c>
       <c r="V46" t="s">
         <v>26</v>
@@ -9161,22 +9164,22 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y46" t="s">
         <v>433</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>434</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>435</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>436</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AC46" t="s">
         <v>437</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>438</v>
       </c>
       <c r="AF46" t="s">
         <v>26</v>
@@ -9185,22 +9188,22 @@
         <v>0</v>
       </c>
       <c r="AH46" t="s">
+        <v>603</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ46" t="s">
         <v>604</v>
       </c>
-      <c r="AI46" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ46" t="s">
+      <c r="AK46" t="s">
         <v>605</v>
       </c>
-      <c r="AK46" t="s">
+      <c r="AL46" t="s">
         <v>606</v>
       </c>
-      <c r="AL46" t="s">
+      <c r="AM46" t="s">
         <v>607</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -9235,22 +9238,22 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
+        <v>240</v>
+      </c>
+      <c r="O47" t="s">
         <v>241</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>242</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>243</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>244</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>245</v>
-      </c>
-      <c r="S47" t="s">
-        <v>246</v>
       </c>
       <c r="V47" t="s">
         <v>27</v>
@@ -9259,22 +9262,22 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y47" t="s">
         <v>439</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>440</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>441</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>442</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AC47" t="s">
         <v>443</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>444</v>
       </c>
       <c r="AF47" t="s">
         <v>27</v>
@@ -9283,22 +9286,22 @@
         <v>0</v>
       </c>
       <c r="AH47" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>609</v>
       </c>
-      <c r="AI47" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ47" t="s">
+      <c r="AK47" t="s">
         <v>610</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AL47" t="s">
         <v>611</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AM47" t="s">
         <v>612</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -9333,22 +9336,22 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
+        <v>246</v>
+      </c>
+      <c r="O48" t="s">
         <v>247</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>248</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>249</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>250</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>251</v>
-      </c>
-      <c r="S48" t="s">
-        <v>252</v>
       </c>
       <c r="V48" t="s">
         <v>28</v>
@@ -9357,22 +9360,22 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y48" t="s">
         <v>445</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>446</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>447</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>448</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AC48" t="s">
         <v>449</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>450</v>
       </c>
       <c r="AF48" t="s">
         <v>28</v>
@@ -9381,22 +9384,22 @@
         <v>0</v>
       </c>
       <c r="AH48" t="s">
+        <v>613</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ48" t="s">
         <v>614</v>
       </c>
-      <c r="AI48" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ48" t="s">
+      <c r="AK48" t="s">
         <v>615</v>
       </c>
-      <c r="AK48" t="s">
+      <c r="AL48" t="s">
         <v>616</v>
       </c>
-      <c r="AL48" t="s">
+      <c r="AM48" t="s">
         <v>617</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.25">
@@ -9431,22 +9434,22 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
+        <v>252</v>
+      </c>
+      <c r="O49" t="s">
         <v>253</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>254</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>255</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>256</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>257</v>
-      </c>
-      <c r="S49" t="s">
-        <v>258</v>
       </c>
       <c r="V49" t="s">
         <v>29</v>
@@ -9455,22 +9458,22 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y49" t="s">
         <v>451</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>452</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>453</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>454</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AC49" t="s">
         <v>455</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>456</v>
       </c>
       <c r="AF49" t="s">
         <v>29</v>
@@ -9479,225 +9482,225 @@
         <v>0</v>
       </c>
       <c r="AH49" t="s">
+        <v>618</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>619</v>
       </c>
-      <c r="AI49" t="s">
-        <v>464</v>
-      </c>
-      <c r="AJ49" t="s">
+      <c r="AK49" t="s">
         <v>620</v>
       </c>
-      <c r="AK49" t="s">
+      <c r="AL49" t="s">
         <v>621</v>
       </c>
-      <c r="AL49" t="s">
+      <c r="AM49" t="s">
         <v>622</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Q50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="T50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="W50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="X50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Z50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AC50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AD50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AE50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AF50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AH50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AJ50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AK50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AL50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AM50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AN50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AO50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AQ50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AR50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AS50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AT50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AU50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AV50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AW50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AX50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AY50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AZ50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BA50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BB50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BC50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BD50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BE50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BF50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BG50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BH50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BI50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BJ50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BK50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BL50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BM50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BN50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="BO50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.25">
@@ -9798,10 +9801,10 @@
         <v>16</v>
       </c>
       <c r="AO51" t="s">
+        <v>624</v>
+      </c>
+      <c r="AY51" t="s">
         <v>625</v>
-      </c>
-      <c r="AY51" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.25">
@@ -9827,7 +9830,7 @@
         <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -9851,7 +9854,7 @@
         <v>17</v>
       </c>
       <c r="U52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W52" t="s">
         <v>17</v>
@@ -9875,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="AE52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s">
         <v>17</v>
@@ -11864,7 +11867,7 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -11888,7 +11891,7 @@
         <v>17</v>
       </c>
       <c r="U69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W69" t="s">
         <v>17</v>
@@ -11912,7 +11915,7 @@
         <v>17</v>
       </c>
       <c r="AE69" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG69" t="s">
         <v>17</v>
@@ -11980,7 +11983,7 @@
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
@@ -11992,7 +11995,7 @@
         <v>18</v>
       </c>
       <c r="K70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O70" t="s">
         <v>18</v>
@@ -12004,7 +12007,7 @@
         <v>18</v>
       </c>
       <c r="U70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y70" t="s">
         <v>18</v>
@@ -12016,7 +12019,7 @@
         <v>18</v>
       </c>
       <c r="AE70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI70" t="s">
         <v>18</v>
@@ -12028,7 +12031,7 @@
         <v>18</v>
       </c>
       <c r="AO70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS70" t="s">
         <v>18</v>
@@ -12040,7 +12043,7 @@
         <v>18</v>
       </c>
       <c r="AY70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC70" t="s">
         <v>18</v>
@@ -14105,7 +14108,7 @@
         <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
@@ -14129,7 +14132,7 @@
         <v>17</v>
       </c>
       <c r="U86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W86" t="s">
         <v>17</v>
@@ -14153,7 +14156,7 @@
         <v>17</v>
       </c>
       <c r="AE86" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG86" t="s">
         <v>17</v>
@@ -14221,7 +14224,7 @@
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
         <v>18</v>
@@ -14233,7 +14236,7 @@
         <v>18</v>
       </c>
       <c r="K87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O87" t="s">
         <v>18</v>
@@ -14245,7 +14248,7 @@
         <v>18</v>
       </c>
       <c r="U87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y87" t="s">
         <v>18</v>
@@ -14257,7 +14260,7 @@
         <v>18</v>
       </c>
       <c r="AE87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AI87" t="s">
         <v>18</v>
@@ -14269,7 +14272,7 @@
         <v>18</v>
       </c>
       <c r="AO87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS87" t="s">
         <v>18</v>
@@ -14281,7 +14284,7 @@
         <v>18</v>
       </c>
       <c r="AY87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BC87" t="s">
         <v>18</v>
@@ -16198,15 +16201,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B2:AH53"/>
+  <dimension ref="B2:AJ53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -16214,10 +16217,10 @@
         <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>89</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -16225,10 +16228,10 @@
         <v>86</v>
       </c>
       <c r="Y3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>77</v>
       </c>
@@ -16310,8 +16313,11 @@
       <c r="AH5" t="s">
         <v>85</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -16346,64 +16352,77 @@
         <v>55</v>
       </c>
       <c r="O6">
-        <v>68.45</v>
+        <v>64.31</v>
       </c>
       <c r="P6">
-        <v>66.72</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="Q6">
-        <v>65.790000000000006</v>
+        <v>65.37</v>
       </c>
       <c r="R6">
-        <v>66.290000000000006</v>
+        <v>64.56</v>
       </c>
       <c r="S6">
-        <v>66.78</v>
+        <v>65.17</v>
       </c>
       <c r="T6">
-        <v>67.489999999999995</v>
+        <v>64.760000000000005</v>
       </c>
       <c r="U6">
-        <v>66.64</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="V6">
-        <v>65.48</v>
+        <v>64.45</v>
       </c>
       <c r="W6">
-        <v>65.540000000000006</v>
+        <v>64.92</v>
       </c>
       <c r="Y6" t="s">
         <v>55</v>
       </c>
       <c r="Z6">
-        <v>42.58</v>
+        <f>C6/O6</f>
+        <v>4.0496034831285961</v>
       </c>
       <c r="AA6">
-        <v>42.31</v>
+        <f t="shared" ref="AA6:AA27" si="0">D6/P6</f>
+        <v>4.0288059470342263</v>
       </c>
       <c r="AB6">
-        <v>42.05</v>
+        <f t="shared" ref="AB6:AB27" si="1">E6/Q6</f>
+        <v>4.0324307786446383</v>
       </c>
       <c r="AC6">
-        <v>42.78</v>
+        <f t="shared" ref="AC6:AC27" si="2">F6/R6</f>
+        <v>4.1050185873605942</v>
       </c>
       <c r="AD6">
-        <v>43</v>
+        <f t="shared" ref="AD6:AD27" si="3">G6/S6</f>
+        <v>4.0688967316249807</v>
       </c>
       <c r="AE6">
-        <v>43.58</v>
+        <f t="shared" ref="AE6:AE27" si="4">H6/T6</f>
+        <v>4.0983631871525636</v>
       </c>
       <c r="AF6">
-        <v>43.08</v>
+        <f t="shared" ref="AF6:AF27" si="5">I6/U6</f>
+        <v>4.1531895079931704</v>
       </c>
       <c r="AG6">
-        <v>44.35</v>
+        <f t="shared" ref="AG6:AG27" si="6">J6/V6</f>
+        <v>4.1716058960434443</v>
       </c>
       <c r="AH6">
-        <v>43.75</v>
+        <f t="shared" ref="AH6:AH27" si="7">K6/W6</f>
+        <v>4.1651263093037576</v>
+      </c>
+      <c r="AJ6">
+        <f>AVERAGE(Z6:AH27)</f>
+        <v>2.7271706566790859</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>56</v>
       </c>
@@ -16438,64 +16457,73 @@
         <v>56</v>
       </c>
       <c r="O7">
-        <v>65.849999999999994</v>
+        <v>65.08</v>
       </c>
       <c r="P7">
-        <v>64.73</v>
+        <v>64.58</v>
       </c>
       <c r="Q7">
-        <v>65.13</v>
+        <v>64.13</v>
       </c>
       <c r="R7">
-        <v>64.45</v>
+        <v>64.31</v>
       </c>
       <c r="S7">
-        <v>65.64</v>
+        <v>65.349999999999994</v>
       </c>
       <c r="T7">
-        <v>66.36</v>
+        <v>64.58</v>
       </c>
       <c r="U7">
-        <v>65.39</v>
+        <v>64.260000000000005</v>
       </c>
       <c r="V7">
-        <v>65.12</v>
+        <v>63.93</v>
       </c>
       <c r="W7">
-        <v>65.28</v>
+        <v>64.37</v>
       </c>
       <c r="Y7" t="s">
         <v>56</v>
       </c>
       <c r="Z7">
-        <v>84.93</v>
+        <f t="shared" ref="Z7:Z27" si="8">C7/O7</f>
+        <v>4.1879225568531044</v>
       </c>
       <c r="AA7">
-        <v>84.21</v>
+        <f t="shared" si="0"/>
+        <v>4.2740786621244968</v>
       </c>
       <c r="AB7">
-        <v>83.68</v>
+        <f t="shared" si="1"/>
+        <v>4.2523000155933266</v>
       </c>
       <c r="AC7">
-        <v>84.97</v>
+        <f t="shared" si="2"/>
+        <v>4.2487948997045564</v>
       </c>
       <c r="AD7">
-        <v>85.35</v>
+        <f t="shared" si="3"/>
+        <v>4.2195868400918135</v>
       </c>
       <c r="AE7">
-        <v>87.94</v>
+        <f t="shared" si="4"/>
+        <v>4.2545679777020746</v>
       </c>
       <c r="AF7">
-        <v>87.07</v>
+        <f t="shared" si="5"/>
+        <v>4.3460939931528157</v>
       </c>
       <c r="AG7">
-        <v>88.16</v>
+        <f t="shared" si="6"/>
+        <v>4.2649773189425941</v>
       </c>
       <c r="AH7">
-        <v>87.8</v>
+        <f t="shared" si="7"/>
+        <v>4.1444772409507529</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>57</v>
       </c>
@@ -16530,64 +16558,73 @@
         <v>57</v>
       </c>
       <c r="O8">
-        <v>54.21</v>
+        <v>60.39</v>
       </c>
       <c r="P8">
-        <v>52.87</v>
+        <v>63.05</v>
       </c>
       <c r="Q8">
-        <v>55.65</v>
+        <v>63.31</v>
       </c>
       <c r="R8">
-        <v>62.29</v>
+        <v>63.38</v>
       </c>
       <c r="S8">
-        <v>61.08</v>
+        <v>62.21</v>
       </c>
       <c r="T8">
-        <v>57.34</v>
+        <v>62.18</v>
       </c>
       <c r="U8">
-        <v>63.51</v>
+        <v>62.89</v>
       </c>
       <c r="V8">
-        <v>62.92</v>
+        <v>63.75</v>
       </c>
       <c r="W8">
-        <v>68.599999999999994</v>
+        <v>64.650000000000006</v>
       </c>
       <c r="Y8" t="s">
         <v>57</v>
       </c>
       <c r="Z8">
-        <v>176.14</v>
+        <f t="shared" si="8"/>
+        <v>4.6260970359331015</v>
       </c>
       <c r="AA8">
-        <v>172.94</v>
+        <f t="shared" si="0"/>
+        <v>4.2467882632831087</v>
       </c>
       <c r="AB8">
-        <v>176.53</v>
+        <f t="shared" si="1"/>
+        <v>4.560101089875217</v>
       </c>
       <c r="AC8">
-        <v>174.87</v>
+        <f t="shared" si="2"/>
+        <v>4.3852950457557585</v>
       </c>
       <c r="AD8">
-        <v>175.93</v>
+        <f t="shared" si="3"/>
+        <v>4.4664844880244337</v>
       </c>
       <c r="AE8">
-        <v>175.12</v>
+        <f t="shared" si="4"/>
+        <v>4.538115149565777</v>
       </c>
       <c r="AF8">
-        <v>174.09</v>
+        <f t="shared" si="5"/>
+        <v>4.4646207664175543</v>
       </c>
       <c r="AG8">
-        <v>174.68</v>
+        <f t="shared" si="6"/>
+        <v>4.3283137254901964</v>
       </c>
       <c r="AH8">
-        <v>176.49</v>
+        <f t="shared" si="7"/>
+        <v>4.2804331013147721</v>
       </c>
     </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>58</v>
       </c>
@@ -16622,64 +16659,73 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>36.82</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="P9">
-        <v>37.880000000000003</v>
+        <v>32.61</v>
       </c>
       <c r="Q9">
-        <v>37.26</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="R9">
-        <v>42.54</v>
+        <v>33.92</v>
       </c>
       <c r="S9">
-        <v>43.29</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="T9">
-        <v>46.07</v>
+        <v>41.29</v>
       </c>
       <c r="U9">
-        <v>42.7</v>
+        <v>47.05</v>
       </c>
       <c r="V9">
-        <v>51.6</v>
+        <v>53.55</v>
       </c>
       <c r="W9">
-        <v>65.83</v>
+        <v>64.5</v>
       </c>
       <c r="Y9" t="s">
         <v>58</v>
       </c>
       <c r="Z9">
-        <v>347.18</v>
+        <f t="shared" si="8"/>
+        <v>6.0551113649343229</v>
       </c>
       <c r="AA9">
-        <v>345.52</v>
+        <f t="shared" si="0"/>
+        <v>5.3038945108862317</v>
       </c>
       <c r="AB9">
-        <v>348.3</v>
+        <f t="shared" si="1"/>
+        <v>4.0816885964912286</v>
       </c>
       <c r="AC9">
-        <v>345.19</v>
+        <f t="shared" si="2"/>
+        <v>4.2476415094339623</v>
       </c>
       <c r="AD9">
-        <v>342.58</v>
+        <f t="shared" si="3"/>
+        <v>4.43150867823765</v>
       </c>
       <c r="AE9">
-        <v>341.66</v>
+        <f t="shared" si="4"/>
+        <v>5.1223056430128358</v>
       </c>
       <c r="AF9">
-        <v>345.15</v>
+        <f t="shared" si="5"/>
+        <v>5.2112646121147721</v>
       </c>
       <c r="AG9">
-        <v>340.49</v>
+        <f t="shared" si="6"/>
+        <v>4.5553688141923434</v>
       </c>
       <c r="AH9">
-        <v>339.54</v>
+        <f t="shared" si="7"/>
+        <v>4.398449612403101</v>
       </c>
     </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -16714,64 +16760,73 @@
         <v>59</v>
       </c>
       <c r="O10">
-        <v>23.95</v>
+        <v>23.38</v>
       </c>
       <c r="P10">
-        <v>24.66</v>
+        <v>23.96</v>
       </c>
       <c r="Q10">
-        <v>24.23</v>
+        <v>24.17</v>
       </c>
       <c r="R10">
-        <v>24.95</v>
+        <v>25.24</v>
       </c>
       <c r="S10">
-        <v>26.51</v>
+        <v>26.75</v>
       </c>
       <c r="T10">
-        <v>28.35</v>
+        <v>29.7</v>
       </c>
       <c r="U10">
-        <v>34.4</v>
+        <v>35.4</v>
       </c>
       <c r="V10">
-        <v>46.04</v>
+        <v>45.5</v>
       </c>
       <c r="W10">
-        <v>65.31</v>
+        <v>65.23</v>
       </c>
       <c r="Y10" t="s">
         <v>59</v>
       </c>
       <c r="Z10">
-        <v>673.28</v>
+        <f t="shared" si="8"/>
+        <v>1.9324208725406331</v>
       </c>
       <c r="AA10">
-        <v>672.68</v>
+        <f t="shared" si="0"/>
+        <v>1.9720367278797997</v>
       </c>
       <c r="AB10">
-        <v>674.34</v>
+        <f t="shared" si="1"/>
+        <v>2.0264791063301613</v>
       </c>
       <c r="AC10">
-        <v>672.06</v>
+        <f t="shared" si="2"/>
+        <v>2.1319334389857372</v>
       </c>
       <c r="AD10">
-        <v>671.28</v>
+        <f t="shared" si="3"/>
+        <v>2.3742056074766356</v>
       </c>
       <c r="AE10">
-        <v>673.57</v>
+        <f t="shared" si="4"/>
+        <v>3.0804713804713804</v>
       </c>
       <c r="AF10">
-        <v>680.12</v>
+        <f t="shared" si="5"/>
+        <v>4.2525423728813561</v>
       </c>
       <c r="AG10">
-        <v>667.47</v>
+        <f t="shared" si="6"/>
+        <v>4.302197802197802</v>
       </c>
       <c r="AH10">
-        <v>665.28</v>
+        <f t="shared" si="7"/>
+        <v>4.324543921508508</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -16806,37 +16861,73 @@
         <v>60</v>
       </c>
       <c r="O11">
-        <v>23.47</v>
+        <v>23.18</v>
       </c>
       <c r="P11">
-        <v>23.52</v>
+        <v>23.33</v>
       </c>
       <c r="Q11">
-        <v>23.98</v>
+        <v>23.72</v>
       </c>
       <c r="R11">
-        <v>25.12</v>
+        <v>24.48</v>
       </c>
       <c r="S11">
-        <v>26.2</v>
+        <v>25.93</v>
       </c>
       <c r="T11">
-        <v>29.37</v>
+        <v>28.63</v>
       </c>
       <c r="U11">
-        <v>34.090000000000003</v>
+        <v>34.49</v>
       </c>
       <c r="V11">
-        <v>44.24</v>
+        <v>44.79</v>
       </c>
       <c r="W11">
-        <v>66.28</v>
+        <v>69.34</v>
       </c>
       <c r="Y11" t="s">
         <v>60</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="8"/>
+        <v>1.8955996548748921</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>1.9279897128161165</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>1.9856661045531199</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="2"/>
+        <v>2.1107026143790848</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>2.3339760894716548</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="4"/>
+        <v>2.6884387006636397</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="5"/>
+        <v>2.9988402435488548</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="6"/>
+        <v>3.6342933690555927</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="7"/>
+        <v>4.0608595327372363</v>
+      </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>61</v>
       </c>
@@ -16871,37 +16962,73 @@
         <v>61</v>
       </c>
       <c r="O12">
-        <v>22.51</v>
+        <v>22.63</v>
       </c>
       <c r="P12">
-        <v>22.31</v>
+        <v>22.71</v>
       </c>
       <c r="Q12">
-        <v>22.76</v>
+        <v>22.93</v>
       </c>
       <c r="R12">
-        <v>23.51</v>
+        <v>23.7</v>
       </c>
       <c r="S12">
-        <v>25.08</v>
+        <v>24.83</v>
       </c>
       <c r="T12">
-        <v>27.94</v>
+        <v>27.74</v>
       </c>
       <c r="U12">
-        <v>33.24</v>
+        <v>33</v>
       </c>
       <c r="V12">
-        <v>42.86</v>
+        <v>43.94</v>
       </c>
       <c r="W12">
-        <v>64.13</v>
+        <v>66.38</v>
       </c>
       <c r="Y12" t="s">
         <v>61</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="8"/>
+        <v>1.9376933274414496</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>1.9929546455306031</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>2.053641517662451</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="2"/>
+        <v>2.1312236286919832</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="3"/>
+        <v>2.3197744663713253</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="4"/>
+        <v>2.5922855082912761</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="5"/>
+        <v>3.0399999999999996</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="6"/>
+        <v>3.7091488393263541</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="7"/>
+        <v>4.2532389273877671</v>
+      </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -16936,37 +17063,73 @@
         <v>62</v>
       </c>
       <c r="O13">
-        <v>22.22</v>
+        <v>22.44</v>
       </c>
       <c r="P13">
-        <v>22.36</v>
+        <v>22.48</v>
       </c>
       <c r="Q13">
-        <v>22.61</v>
+        <v>22.8</v>
       </c>
       <c r="R13">
-        <v>23.36</v>
+        <v>23.53</v>
       </c>
       <c r="S13">
-        <v>24.9</v>
+        <v>24.91</v>
       </c>
       <c r="T13">
-        <v>27.39</v>
+        <v>27.57</v>
       </c>
       <c r="U13">
-        <v>32.31</v>
+        <v>32.67</v>
       </c>
       <c r="V13">
-        <v>43.55</v>
+        <v>44.13</v>
       </c>
       <c r="W13">
-        <v>65.39</v>
+        <v>66.88</v>
       </c>
       <c r="Y13" t="s">
         <v>62</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="8"/>
+        <v>1.8565062388591798</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1.8816725978647686</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>1.9504385964912279</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="2"/>
+        <v>2.0539736506587332</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="3"/>
+        <v>2.2320353271778401</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="4"/>
+        <v>2.5999274573812117</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="5"/>
+        <v>3.1466176920722373</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="6"/>
+        <v>3.6492182188987079</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="7"/>
+        <v>4.1975179425837323</v>
+      </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -17001,37 +17164,73 @@
         <v>63</v>
       </c>
       <c r="O14">
-        <v>21.48</v>
+        <v>21.62</v>
       </c>
       <c r="P14">
         <v>22.01</v>
       </c>
       <c r="Q14">
-        <v>22.22</v>
+        <v>22.34</v>
       </c>
       <c r="R14">
-        <v>22.54</v>
+        <v>22.86</v>
       </c>
       <c r="S14">
-        <v>23.91</v>
+        <v>24.26</v>
       </c>
       <c r="T14">
-        <v>26.94</v>
+        <v>27.33</v>
       </c>
       <c r="U14">
-        <v>31.96</v>
+        <v>32.729999999999997</v>
       </c>
       <c r="V14">
-        <v>43.54</v>
+        <v>43.81</v>
       </c>
       <c r="W14">
-        <v>65.13</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="Y14" t="s">
         <v>63</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="8"/>
+        <v>1.5097132284921368</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>1.4911403907314855</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>1.5738585496866606</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="2"/>
+        <v>1.7204724409448819</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="3"/>
+        <v>1.9847485572959602</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="4"/>
+        <v>2.3241858763263816</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="5"/>
+        <v>2.9019248395967008</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="6"/>
+        <v>3.5717872631819216</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="7"/>
+        <v>4.3307086614173222</v>
+      </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>64</v>
       </c>
@@ -17066,37 +17265,73 @@
         <v>64</v>
       </c>
       <c r="O15">
-        <v>16.100000000000001</v>
+        <v>16.11</v>
       </c>
       <c r="P15">
-        <v>16.260000000000002</v>
+        <v>16.23</v>
       </c>
       <c r="Q15">
-        <v>16.86</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="R15">
-        <v>17.48</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="S15">
-        <v>19.09</v>
+        <v>19.13</v>
       </c>
       <c r="T15">
-        <v>21.96</v>
+        <v>22.53</v>
       </c>
       <c r="U15">
-        <v>28.41</v>
+        <v>28.78</v>
       </c>
       <c r="V15">
-        <v>40.83</v>
+        <v>42.08</v>
       </c>
       <c r="W15">
-        <v>64.75</v>
+        <v>67.2</v>
       </c>
       <c r="Y15" t="s">
         <v>64</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>1.5772811918063316</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1.6266173752310535</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>1.6832633473305336</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>1.8776443682104063</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="3"/>
+        <v>2.1479351803450082</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="4"/>
+        <v>2.4709276520195296</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="5"/>
+        <v>3.1077136900625431</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="6"/>
+        <v>3.6682509505703429</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="7"/>
+        <v>4.2293154761904761</v>
+      </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -17131,37 +17366,73 @@
         <v>65</v>
       </c>
       <c r="O16">
-        <v>14.64</v>
+        <v>14.46</v>
       </c>
       <c r="P16">
-        <v>14.79</v>
+        <v>14.72</v>
       </c>
       <c r="Q16">
-        <v>15.39</v>
+        <v>15.18</v>
       </c>
       <c r="R16">
-        <v>16.07</v>
+        <v>15.95</v>
       </c>
       <c r="S16">
-        <v>17.690000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="T16">
-        <v>21.19</v>
+        <v>20.91</v>
       </c>
       <c r="U16">
-        <v>27.75</v>
+        <v>27.47</v>
       </c>
       <c r="V16">
-        <v>41.16</v>
+        <v>40.92</v>
       </c>
       <c r="W16">
-        <v>66.2</v>
+        <v>68.47</v>
       </c>
       <c r="Y16" t="s">
         <v>65</v>
       </c>
+      <c r="Z16">
+        <f t="shared" si="8"/>
+        <v>1.1804979253112033</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>1.2262228260869565</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>1.334650856389987</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="2"/>
+        <v>1.510344827586207</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="3"/>
+        <v>1.8677966101694918</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="4"/>
+        <v>2.3428981348637015</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="5"/>
+        <v>2.9577721150345835</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="6"/>
+        <v>3.7162756598240465</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="7"/>
+        <v>4.1967284942310501</v>
+      </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -17196,37 +17467,73 @@
         <v>66</v>
       </c>
       <c r="O17">
-        <v>14.71</v>
+        <v>14.51</v>
       </c>
       <c r="P17">
-        <v>15.09</v>
+        <v>14.81</v>
       </c>
       <c r="Q17">
-        <v>15.6</v>
+        <v>15.25</v>
       </c>
       <c r="R17">
-        <v>16.52</v>
+        <v>16.18</v>
       </c>
       <c r="S17">
-        <v>18.21</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="T17">
-        <v>21.65</v>
+        <v>21.25</v>
       </c>
       <c r="U17">
-        <v>29.52</v>
+        <v>27.88</v>
       </c>
       <c r="V17">
-        <v>43.95</v>
+        <v>41.32</v>
       </c>
       <c r="W17">
-        <v>73.209999999999994</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="Y17" t="s">
         <v>66</v>
       </c>
+      <c r="Z17">
+        <f t="shared" si="8"/>
+        <v>1.1109579600275672</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>1.2005401755570562</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>1.3088524590163935</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="2"/>
+        <v>1.4820766378244747</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="3"/>
+        <v>1.840539023020775</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="4"/>
+        <v>2.4169411764705884</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="5"/>
+        <v>3.1506456241033001</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="6"/>
+        <v>3.8414811229428847</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>4.3396581691772882</v>
+      </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>67</v>
       </c>
@@ -17261,37 +17568,73 @@
         <v>67</v>
       </c>
       <c r="O18">
-        <v>11.2</v>
+        <v>11.08</v>
       </c>
       <c r="P18">
-        <v>11.8</v>
+        <v>11.34</v>
       </c>
       <c r="Q18">
-        <v>12.37</v>
+        <v>11.97</v>
       </c>
       <c r="R18">
-        <v>13.52</v>
+        <v>13.05</v>
       </c>
       <c r="S18">
-        <v>15.54</v>
+        <v>14.93</v>
       </c>
       <c r="T18">
-        <v>19.559999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="U18">
-        <v>27.54</v>
+        <v>26.68</v>
       </c>
       <c r="V18">
-        <v>43.76</v>
+        <v>42.27</v>
       </c>
       <c r="W18">
-        <v>76.22</v>
+        <v>73.3</v>
       </c>
       <c r="Y18" t="s">
         <v>67</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="8"/>
+        <v>1.1543321299638989</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>1.2125220458553791</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>1.327485380116959</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="2"/>
+        <v>1.5279693486590038</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="3"/>
+        <v>1.8935030140656397</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="4"/>
+        <v>2.4544973544973545</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="5"/>
+        <v>3.1934032983508249</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="6"/>
+        <v>3.6912704045422284</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="7"/>
+        <v>4.1918144611186907</v>
+      </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>68</v>
       </c>
@@ -17326,37 +17669,73 @@
         <v>68</v>
       </c>
       <c r="O19">
-        <v>11.26</v>
+        <v>11.16</v>
       </c>
       <c r="P19">
-        <v>11.84</v>
+        <v>11.55</v>
       </c>
       <c r="Q19">
-        <v>12.28</v>
+        <v>12.1</v>
       </c>
       <c r="R19">
-        <v>13.47</v>
+        <v>13.33</v>
       </c>
       <c r="S19">
-        <v>15.88</v>
+        <v>15.6</v>
       </c>
       <c r="T19">
-        <v>20.05</v>
+        <v>19.96</v>
       </c>
       <c r="U19">
-        <v>28.59</v>
+        <v>28.34</v>
       </c>
       <c r="V19">
-        <v>46.06</v>
+        <v>45.57</v>
       </c>
       <c r="W19">
-        <v>83.35</v>
+        <v>80.92</v>
       </c>
       <c r="Y19" t="s">
         <v>68</v>
       </c>
+      <c r="Z19">
+        <f t="shared" si="8"/>
+        <v>1.0412186379928314</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>1.1186147186147186</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1.296694214876033</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="2"/>
+        <v>1.5108777194298575</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="3"/>
+        <v>1.8884615384615386</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="4"/>
+        <v>2.597695390781563</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="5"/>
+        <v>3.2706422018348622</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="6"/>
+        <v>3.9482115426815882</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="7"/>
+        <v>4.2409787444389524</v>
+      </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>69</v>
       </c>
@@ -17391,37 +17770,73 @@
         <v>69</v>
       </c>
       <c r="O20">
-        <v>11.51</v>
+        <v>11.52</v>
       </c>
       <c r="P20">
-        <v>12.05</v>
+        <v>11.86</v>
       </c>
       <c r="Q20">
-        <v>12.86</v>
+        <v>12.68</v>
       </c>
       <c r="R20">
-        <v>14.39</v>
+        <v>14.17</v>
       </c>
       <c r="S20">
-        <v>17.3</v>
+        <v>16.73</v>
       </c>
       <c r="T20">
-        <v>22.83</v>
+        <v>22.26</v>
       </c>
       <c r="U20">
-        <v>32.93</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="V20">
-        <v>54.58</v>
+        <v>53.74</v>
       </c>
       <c r="W20">
-        <v>97.55</v>
+        <v>96.93</v>
       </c>
       <c r="Y20" t="s">
         <v>69</v>
       </c>
+      <c r="Z20">
+        <f t="shared" si="8"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>1.1829679595278246</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>1.3509463722397477</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="2"/>
+        <v>1.6005645730416374</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="3"/>
+        <v>2.1141661685594739</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="4"/>
+        <v>2.6168014375561546</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="5"/>
+        <v>3.438414634146342</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="6"/>
+        <v>3.9717156680312615</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="7"/>
+        <v>4.17631280305375</v>
+      </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>70</v>
       </c>
@@ -17456,37 +17871,73 @@
         <v>70</v>
       </c>
       <c r="O21">
-        <v>12.03</v>
+        <v>11.74</v>
       </c>
       <c r="P21">
-        <v>12.62</v>
+        <v>12.27</v>
       </c>
       <c r="Q21">
-        <v>13.73</v>
+        <v>13.45</v>
       </c>
       <c r="R21">
-        <v>15.74</v>
+        <v>15.45</v>
       </c>
       <c r="S21">
-        <v>19.27</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="T21">
-        <v>26.15</v>
+        <v>26.5</v>
       </c>
       <c r="U21">
-        <v>41.07</v>
+        <v>40.92</v>
       </c>
       <c r="V21">
-        <v>69.709999999999994</v>
+        <v>68.66</v>
       </c>
       <c r="W21">
-        <v>128.44</v>
+        <v>129.85</v>
       </c>
       <c r="Y21" t="s">
         <v>70</v>
       </c>
+      <c r="Z21">
+        <f t="shared" si="8"/>
+        <v>1.1362862010221464</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>1.263243683781581</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>1.446096654275093</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="2"/>
+        <v>1.8168284789644014</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="3"/>
+        <v>2.3523021210553545</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="4"/>
+        <v>2.8528301886792451</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>3.3511730205278591</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="6"/>
+        <v>3.952228371686572</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="7"/>
+        <v>3.9777435502502887</v>
+      </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>71</v>
       </c>
@@ -17521,37 +17972,73 @@
         <v>71</v>
       </c>
       <c r="O22">
-        <v>13.19</v>
+        <v>10.6</v>
       </c>
       <c r="P22">
-        <v>14.17</v>
+        <v>11.24</v>
       </c>
       <c r="Q22">
-        <v>15.75</v>
+        <v>12.86</v>
       </c>
       <c r="R22">
-        <v>19.02</v>
+        <v>15.76</v>
       </c>
       <c r="S22">
-        <v>24.43</v>
+        <v>21.08</v>
       </c>
       <c r="T22">
-        <v>34.659999999999997</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="U22">
-        <v>53</v>
+        <v>53.44</v>
       </c>
       <c r="V22">
-        <v>100.68</v>
+        <v>97.74</v>
       </c>
       <c r="W22">
-        <v>186.4</v>
+        <v>182.95</v>
       </c>
       <c r="Y22" t="s">
         <v>71</v>
       </c>
+      <c r="Z22">
+        <f t="shared" si="8"/>
+        <v>1.1773584905660379</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>1.3656583629893237</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>1.6337480559875586</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="2"/>
+        <v>2.0291878172588831</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="3"/>
+        <v>2.6200189753320684</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="4"/>
+        <v>3.2200062324711745</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="5"/>
+        <v>3.6485778443113772</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="6"/>
+        <v>3.8323102107632496</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="7"/>
+        <v>4.0602350368953273</v>
+      </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>72</v>
       </c>
@@ -17586,37 +18073,73 @@
         <v>72</v>
       </c>
       <c r="O23">
-        <v>9.1999999999999993</v>
+        <v>10.43</v>
       </c>
       <c r="P23">
-        <v>10.16</v>
+        <v>11.47</v>
       </c>
       <c r="Q23">
-        <v>12.27</v>
+        <v>13.62</v>
       </c>
       <c r="R23">
-        <v>16.23</v>
+        <v>17.62</v>
       </c>
       <c r="S23">
-        <v>24.01</v>
+        <v>25.47</v>
       </c>
       <c r="T23">
-        <v>40.76</v>
+        <v>40.86</v>
       </c>
       <c r="U23">
-        <v>78.12</v>
+        <v>75.349999999999994</v>
       </c>
       <c r="V23">
-        <v>155.72</v>
+        <v>147.65</v>
       </c>
       <c r="W23">
-        <v>273.72000000000003</v>
+        <v>273.49</v>
       </c>
       <c r="Y23" t="s">
         <v>72</v>
       </c>
+      <c r="Z23">
+        <f t="shared" si="8"/>
+        <v>1.2550335570469799</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>1.5170008718395813</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>1.9155653450807637</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="2"/>
+        <v>2.3950056753688989</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="3"/>
+        <v>2.8174322732626624</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="4"/>
+        <v>3.3056779246206558</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="5"/>
+        <v>3.3800928998009292</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="6"/>
+        <v>3.357534710463935</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="7"/>
+        <v>3.7655855789974035</v>
+      </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>73</v>
       </c>
@@ -17651,37 +18174,73 @@
         <v>73</v>
       </c>
       <c r="O24">
-        <v>9.0500000000000007</v>
+        <v>10.53</v>
       </c>
       <c r="P24">
-        <v>10.6</v>
+        <v>12.44</v>
       </c>
       <c r="Q24">
-        <v>13.04</v>
+        <v>15.26</v>
       </c>
       <c r="R24">
-        <v>18.489999999999998</v>
+        <v>21.06</v>
       </c>
       <c r="S24">
-        <v>29.75</v>
+        <v>34.43</v>
       </c>
       <c r="T24">
-        <v>54.87</v>
+        <v>61.56</v>
       </c>
       <c r="U24">
-        <v>99.03</v>
+        <v>116.29</v>
       </c>
       <c r="V24">
-        <v>188.03</v>
+        <v>220.4</v>
       </c>
       <c r="W24">
-        <v>336.74</v>
+        <v>352.99</v>
       </c>
       <c r="Y24" t="s">
         <v>73</v>
       </c>
+      <c r="Z24">
+        <f t="shared" si="8"/>
+        <v>1.3266856600189936</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1.5586816720257235</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>2.0543905635648758</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="2"/>
+        <v>2.5384615384615388</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="3"/>
+        <v>2.8791751379610804</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="4"/>
+        <v>2.9600389863547756</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="5"/>
+        <v>3.1229684409665492</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="6"/>
+        <v>3.1856624319419238</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="7"/>
+        <v>2.3439190911923848</v>
+      </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>74</v>
       </c>
@@ -17716,37 +18275,73 @@
         <v>74</v>
       </c>
       <c r="O25">
-        <v>10.1</v>
+        <v>11.84</v>
       </c>
       <c r="P25">
-        <v>11.7</v>
+        <v>14.44</v>
       </c>
       <c r="Q25">
-        <v>14.12</v>
+        <v>19</v>
       </c>
       <c r="R25">
-        <v>21.4</v>
+        <v>28.4</v>
       </c>
       <c r="S25">
-        <v>38.67</v>
+        <v>47.81</v>
       </c>
       <c r="T25">
-        <v>73.489999999999995</v>
+        <v>88.68</v>
       </c>
       <c r="U25">
-        <v>132.08000000000001</v>
+        <v>169.37</v>
       </c>
       <c r="V25">
-        <v>218.65</v>
+        <v>306.74</v>
       </c>
       <c r="W25">
-        <v>578.02</v>
+        <v>503.51</v>
       </c>
       <c r="Y25" t="s">
         <v>74</v>
       </c>
+      <c r="Z25">
+        <f t="shared" si="8"/>
+        <v>1.2069256756756757</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>1.317174515235457</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>1.3810526315789473</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="2"/>
+        <v>1.6264084507042254</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="3"/>
+        <v>1.6741267517255805</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="4"/>
+        <v>1.8145015787099683</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="5"/>
+        <v>1.7518450729172814</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="6"/>
+        <v>2.050466192866923</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="7"/>
+        <v>2.4449762666084087</v>
+      </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>75</v>
       </c>
@@ -17781,37 +18376,73 @@
         <v>75</v>
       </c>
       <c r="O26">
-        <v>10.92</v>
+        <v>13.65</v>
       </c>
       <c r="P26">
-        <v>13.69</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="Q26">
-        <v>19.21</v>
+        <v>23.97</v>
       </c>
       <c r="R26">
-        <v>31.09</v>
+        <v>41.2</v>
       </c>
       <c r="S26">
-        <v>56.54</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="T26">
-        <v>97.47</v>
+        <v>149.84</v>
       </c>
       <c r="U26">
-        <v>164.95</v>
+        <v>276.88</v>
       </c>
       <c r="V26">
-        <v>304.45</v>
+        <v>545.39</v>
       </c>
       <c r="W26">
-        <v>942.49</v>
+        <v>1305.54</v>
       </c>
       <c r="Y26" t="s">
         <v>75</v>
       </c>
+      <c r="Z26">
+        <f t="shared" si="8"/>
+        <v>1.3208791208791208</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>1.6816326530612247</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>1.7738840216937841</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="2"/>
+        <v>1.6638349514563104</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="3"/>
+        <v>1.6229572493136359</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="4"/>
+        <v>1.5527229044313935</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="5"/>
+        <v>0.73103871713377633</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="6"/>
+        <v>0.3776380204990924</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="7"/>
+        <v>0.16073808538995357</v>
+      </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>76</v>
       </c>
@@ -17846,43 +18477,79 @@
         <v>76</v>
       </c>
       <c r="O27">
-        <v>15.74</v>
+        <v>19.89</v>
       </c>
       <c r="P27">
-        <v>20.52</v>
+        <v>26.06</v>
       </c>
       <c r="Q27">
-        <v>30.45</v>
+        <v>41.11</v>
       </c>
       <c r="R27">
-        <v>49.43</v>
+        <v>70.48</v>
       </c>
       <c r="S27">
-        <v>86.23</v>
+        <v>130.35</v>
       </c>
       <c r="T27">
-        <v>138.4</v>
+        <v>232.91</v>
       </c>
       <c r="U27">
-        <v>196.49</v>
+        <v>379.18</v>
       </c>
       <c r="V27">
-        <v>354.39</v>
+        <v>932.15</v>
       </c>
       <c r="W27">
-        <v>925.32</v>
+        <v>1691.96</v>
       </c>
       <c r="Y27" t="s">
         <v>76</v>
       </c>
+      <c r="Z27">
+        <f t="shared" si="8"/>
+        <v>1.5178481649069884</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>1.7425172678434382</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>1.8932133300900025</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="2"/>
+        <v>2.0554767309875142</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="3"/>
+        <v>2.1027234369006518</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="4"/>
+        <v>2.0388991455927181</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="5"/>
+        <v>2.5173268632311832</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="6"/>
+        <v>2.2458188059861612</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="7"/>
+        <v>2.4080238303505994</v>
+      </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="L29">
         <f>SUM(C6:K27) / 60 / 60</f>
         <v>10.237952777777773</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>87</v>
       </c>
@@ -17890,10 +18557,10 @@
         <v>87</v>
       </c>
       <c r="Y30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>77</v>
       </c>
@@ -17975,8 +18642,11 @@
       <c r="AH31" t="s">
         <v>85</v>
       </c>
+      <c r="AJ31" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -18011,37 +18681,77 @@
         <v>55</v>
       </c>
       <c r="O32">
-        <v>72.94</v>
+        <v>66.45</v>
       </c>
       <c r="P32">
-        <v>70.84</v>
+        <v>65.45</v>
       </c>
       <c r="Q32">
-        <v>72.11</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="R32">
-        <v>71.19</v>
+        <v>64.77</v>
       </c>
       <c r="S32">
-        <v>69.94</v>
+        <v>65.3</v>
       </c>
       <c r="T32">
-        <v>72.819999999999993</v>
+        <v>65.2</v>
       </c>
       <c r="U32">
-        <v>70.06</v>
+        <v>64.92</v>
       </c>
       <c r="V32">
-        <v>71.260000000000005</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="W32">
-        <v>70.69</v>
+        <v>64.67</v>
       </c>
       <c r="Y32" t="s">
         <v>55</v>
       </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32:Z53" si="9">C32/O32</f>
+        <v>3.8689240030097811</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" ref="AA32:AA53" si="10">D32/P32</f>
+        <v>4.0565317035905268</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" ref="AB32:AB53" si="11">E32/Q32</f>
+        <v>4.02832512315271</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" ref="AC32:AC53" si="12">F32/R32</f>
+        <v>4.0838351088466887</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" ref="AD32:AD53" si="13">G32/S32</f>
+        <v>4.1388973966309344</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" ref="AE32:AE53" si="14">H32/T32</f>
+        <v>4.110276073619632</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" ref="AF32:AF53" si="15">I32/U32</f>
+        <v>4.1996303142329019</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" ref="AG32:AG53" si="16">J32/V32</f>
+        <v>4.351650038372985</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" ref="AH32:AH53" si="17">K32/W32</f>
+        <v>4.1139631977733107</v>
+      </c>
+      <c r="AJ32">
+        <f>AVERAGE(Z32:AH53)</f>
+        <v>2.5929641454353387</v>
+      </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -18076,37 +18786,73 @@
         <v>56</v>
       </c>
       <c r="O33">
-        <v>143.16</v>
+        <v>108.92</v>
       </c>
       <c r="P33">
-        <v>146.85</v>
+        <v>109.9</v>
       </c>
       <c r="Q33">
-        <v>149.12</v>
+        <v>109.2</v>
       </c>
       <c r="R33">
-        <v>146.63</v>
+        <v>109.07</v>
       </c>
       <c r="S33">
-        <v>145.52000000000001</v>
+        <v>108.38</v>
       </c>
       <c r="T33">
-        <v>143.69</v>
+        <v>108.47</v>
       </c>
       <c r="U33">
-        <v>151.06</v>
+        <v>109.95</v>
       </c>
       <c r="V33">
-        <v>149.75</v>
+        <v>111.53</v>
       </c>
       <c r="W33">
-        <v>146.19</v>
+        <v>112.4</v>
       </c>
       <c r="Y33" t="s">
         <v>56</v>
       </c>
+      <c r="Z33">
+        <f t="shared" si="9"/>
+        <v>4.5872199779654794</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="10"/>
+        <v>4.636396724294813</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="11"/>
+        <v>4.592307692307692</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="12"/>
+        <v>4.4729989914733661</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="13"/>
+        <v>4.6754936335117181</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="14"/>
+        <v>4.6820318982207061</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="15"/>
+        <v>4.7000454752160072</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="16"/>
+        <v>4.4829193938850533</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="17"/>
+        <v>4.3548932384341636</v>
+      </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>57</v>
       </c>
@@ -18141,37 +18887,73 @@
         <v>57</v>
       </c>
       <c r="O34">
-        <v>292.42</v>
+        <v>118.47</v>
       </c>
       <c r="P34">
-        <v>309.01</v>
+        <v>116.7</v>
       </c>
       <c r="Q34">
-        <v>292.97000000000003</v>
+        <v>117.6</v>
       </c>
       <c r="R34">
-        <v>298.17</v>
+        <v>121.31</v>
       </c>
       <c r="S34">
-        <v>300.01</v>
+        <v>119.46</v>
       </c>
       <c r="T34">
-        <v>297.72000000000003</v>
+        <v>111.38</v>
       </c>
       <c r="U34">
-        <v>297.89999999999998</v>
+        <v>116.06</v>
       </c>
       <c r="V34">
-        <v>298.94</v>
+        <v>120.42</v>
       </c>
       <c r="W34">
-        <v>282.22000000000003</v>
+        <v>127.11</v>
       </c>
       <c r="Y34" t="s">
         <v>57</v>
       </c>
+      <c r="Z34">
+        <f t="shared" si="9"/>
+        <v>4.4042373596691142</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>4.4784918594687229</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="11"/>
+        <v>4.3644557823129251</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="12"/>
+        <v>4.4336823015415057</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="13"/>
+        <v>4.5257826887661139</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="14"/>
+        <v>4.8760998383910943</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="15"/>
+        <v>4.5093055316215755</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="16"/>
+        <v>4.2361733931240657</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="17"/>
+        <v>3.9837148926126975</v>
+      </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>58</v>
       </c>
@@ -18206,37 +18988,73 @@
         <v>58</v>
       </c>
       <c r="O35">
-        <v>616.08000000000004</v>
+        <v>59.94</v>
       </c>
       <c r="P35">
-        <v>590.66</v>
+        <v>54.83</v>
       </c>
       <c r="Q35">
-        <v>590.66</v>
+        <v>52.14</v>
       </c>
       <c r="R35">
-        <v>593.65</v>
+        <v>59.18</v>
       </c>
       <c r="S35">
-        <v>581.28</v>
+        <v>63.71</v>
       </c>
       <c r="T35">
-        <v>606.21</v>
+        <v>72.63</v>
       </c>
       <c r="U35">
-        <v>621.70000000000005</v>
+        <v>100.84</v>
       </c>
       <c r="V35">
-        <v>621.70000000000005</v>
+        <v>109.17</v>
       </c>
       <c r="W35">
-        <v>621.70000000000005</v>
+        <v>129.18</v>
       </c>
       <c r="Y35" t="s">
         <v>58</v>
       </c>
+      <c r="Z35">
+        <f t="shared" si="9"/>
+        <v>7.3438438438438443</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="10"/>
+        <v>8.0702170344701809</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="11"/>
+        <v>8.7359033371691606</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="12"/>
+        <v>7.8788442041230144</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="13"/>
+        <v>7.2823732538063091</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="14"/>
+        <v>6.4158061407132045</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="15"/>
+        <v>4.6572788575961921</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="16"/>
+        <v>4.32783731794449</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="17"/>
+        <v>3.6029571141043504</v>
+      </c>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>59</v>
       </c>
@@ -18271,16 +19089,73 @@
         <v>59</v>
       </c>
       <c r="O36">
-        <v>1150.93</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="P36">
-        <v>1144.28</v>
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <v>37.17</v>
+      </c>
+      <c r="R36">
+        <v>38.75</v>
+      </c>
+      <c r="S36">
+        <v>42.48</v>
+      </c>
+      <c r="T36">
+        <v>50.29</v>
+      </c>
+      <c r="U36">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="V36">
+        <v>91.81</v>
+      </c>
+      <c r="W36">
+        <v>130.49</v>
       </c>
       <c r="Y36" t="s">
         <v>59</v>
       </c>
+      <c r="Z36">
+        <f t="shared" si="9"/>
+        <v>6.1031567080045095</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="10"/>
+        <v>8.7219444444444445</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="11"/>
+        <v>6.845574387947269</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="12"/>
+        <v>9.2456774193548377</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="13"/>
+        <v>7.7483521657250467</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="14"/>
+        <v>7.7689401471465498</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="15"/>
+        <v>6.5426344505066245</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="16"/>
+        <v>4.9695022328722356</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="17"/>
+        <v>3.6503946662579505</v>
+      </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>60</v>
       </c>
@@ -18314,11 +19189,74 @@
       <c r="N37" t="s">
         <v>60</v>
       </c>
+      <c r="O37">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="P37">
+        <v>34.07</v>
+      </c>
+      <c r="Q37">
+        <v>33.22</v>
+      </c>
+      <c r="R37">
+        <v>34.97</v>
+      </c>
+      <c r="S37">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="T37">
+        <v>44.69</v>
+      </c>
+      <c r="U37">
+        <v>56.76</v>
+      </c>
+      <c r="V37">
+        <v>80.64</v>
+      </c>
+      <c r="W37">
+        <v>127.23</v>
+      </c>
       <c r="Y37" t="s">
         <v>60</v>
       </c>
+      <c r="Z37">
+        <f t="shared" si="9"/>
+        <v>2.5791962174940894</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="10"/>
+        <v>2.396243029057822</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="11"/>
+        <v>2.5523780854906684</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="12"/>
+        <v>2.6345438947669431</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="13"/>
+        <v>2.793626317142123</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="14"/>
+        <v>3.4949653166256436</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="15"/>
+        <v>3.9291754756871038</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="16"/>
+        <v>4.3914930555555554</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="17"/>
+        <v>3.7135109643951898</v>
+      </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>61</v>
       </c>
@@ -18352,11 +19290,74 @@
       <c r="N38" t="s">
         <v>61</v>
       </c>
+      <c r="O38">
+        <v>31.3</v>
+      </c>
+      <c r="P38">
+        <v>31.66</v>
+      </c>
+      <c r="Q38">
+        <v>32.96</v>
+      </c>
+      <c r="R38">
+        <v>33.82</v>
+      </c>
+      <c r="S38">
+        <v>37.26</v>
+      </c>
+      <c r="T38">
+        <v>44.7</v>
+      </c>
+      <c r="U38">
+        <v>57.08</v>
+      </c>
+      <c r="V38">
+        <v>82.98</v>
+      </c>
+      <c r="W38">
+        <v>134.97</v>
+      </c>
       <c r="Y38" t="s">
         <v>61</v>
       </c>
+      <c r="Z38">
+        <f t="shared" si="9"/>
+        <v>2.2067092651757187</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="10"/>
+        <v>2.2245735944409351</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="11"/>
+        <v>2.210861650485437</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="12"/>
+        <v>2.3746303962152573</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="13"/>
+        <v>2.510198604401503</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="14"/>
+        <v>2.6845637583892614</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="15"/>
+        <v>3.1683601962158372</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="16"/>
+        <v>3.3758737045071099</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="17"/>
+        <v>3.4882566496258427</v>
+      </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -18390,11 +19391,74 @@
       <c r="N39" t="s">
         <v>62</v>
       </c>
+      <c r="O39">
+        <v>31.64</v>
+      </c>
+      <c r="P39">
+        <v>32.03</v>
+      </c>
+      <c r="Q39">
+        <v>33.03</v>
+      </c>
+      <c r="R39">
+        <v>34.6</v>
+      </c>
+      <c r="S39">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="T39">
+        <v>46.09</v>
+      </c>
+      <c r="U39">
+        <v>59.38</v>
+      </c>
+      <c r="V39">
+        <v>88.34</v>
+      </c>
+      <c r="W39">
+        <v>149.52000000000001</v>
+      </c>
       <c r="Y39" t="s">
         <v>62</v>
       </c>
+      <c r="Z39">
+        <f t="shared" si="9"/>
+        <v>2.09134007585335</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="10"/>
+        <v>2.108960349672182</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="11"/>
+        <v>2.1798365122615802</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" si="12"/>
+        <v>2.2479768786127168</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="13"/>
+        <v>2.3184271395528144</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="14"/>
+        <v>2.5189845953569101</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="15"/>
+        <v>2.8342876389356686</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="16"/>
+        <v>3.0525243377858278</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="17"/>
+        <v>3.1696094168004278</v>
+      </c>
     </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>63</v>
       </c>
@@ -18428,11 +19492,74 @@
       <c r="N40" t="s">
         <v>63</v>
       </c>
+      <c r="O40">
+        <v>31.69</v>
+      </c>
+      <c r="P40">
+        <v>32.28</v>
+      </c>
+      <c r="Q40">
+        <v>33.33</v>
+      </c>
+      <c r="R40">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="S40">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="T40">
+        <v>47.41</v>
+      </c>
+      <c r="U40">
+        <v>62.87</v>
+      </c>
+      <c r="V40">
+        <v>95.49</v>
+      </c>
+      <c r="W40">
+        <v>160.99</v>
+      </c>
       <c r="Y40" t="s">
         <v>63</v>
       </c>
+      <c r="Z40">
+        <f t="shared" si="9"/>
+        <v>1.8488482171031873</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="10"/>
+        <v>1.8782527881040891</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="11"/>
+        <v>1.9084908490849086</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" si="12"/>
+        <v>1.9751482632024853</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="13"/>
+        <v>2.0995965708522442</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="14"/>
+        <v>2.223159670955495</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="15"/>
+        <v>2.5151900747574358</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="16"/>
+        <v>2.7182951094355432</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="17"/>
+        <v>2.905894776073048</v>
+      </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>64</v>
       </c>
@@ -18466,11 +19593,74 @@
       <c r="N41" t="s">
         <v>64</v>
       </c>
+      <c r="O41">
+        <v>27.12</v>
+      </c>
+      <c r="P41">
+        <v>27.69</v>
+      </c>
+      <c r="Q41">
+        <v>29.09</v>
+      </c>
+      <c r="R41">
+        <v>31.29</v>
+      </c>
+      <c r="S41">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="T41">
+        <v>44.39</v>
+      </c>
+      <c r="U41">
+        <v>62.7</v>
+      </c>
+      <c r="V41">
+        <v>95.91</v>
+      </c>
+      <c r="W41">
+        <v>183.76</v>
+      </c>
       <c r="Y41" t="s">
         <v>64</v>
       </c>
+      <c r="Z41">
+        <f t="shared" si="9"/>
+        <v>1.5516224188790559</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="10"/>
+        <v>1.6713615023474178</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="11"/>
+        <v>1.671020969405294</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="12"/>
+        <v>1.7855544902524767</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="13"/>
+        <v>1.9549929676511957</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="14"/>
+        <v>2.2565893219193511</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="15"/>
+        <v>2.513078149920255</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="16"/>
+        <v>2.8603899489104365</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="17"/>
+        <v>2.6716369177187635</v>
+      </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>65</v>
       </c>
@@ -18504,11 +19694,74 @@
       <c r="N42" t="s">
         <v>65</v>
       </c>
+      <c r="O42">
+        <v>24.18</v>
+      </c>
+      <c r="P42">
+        <v>24.97</v>
+      </c>
+      <c r="Q42">
+        <v>25.45</v>
+      </c>
+      <c r="R42">
+        <v>28.34</v>
+      </c>
+      <c r="S42">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="T42">
+        <v>43.18</v>
+      </c>
+      <c r="U42">
+        <v>61.39</v>
+      </c>
+      <c r="V42">
+        <v>100.89</v>
+      </c>
+      <c r="W42">
+        <v>198.49</v>
+      </c>
       <c r="Y42" t="s">
         <v>65</v>
       </c>
+      <c r="Z42">
+        <f t="shared" si="9"/>
+        <v>1.100082712985939</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="10"/>
+        <v>1.1397677212655186</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="11"/>
+        <v>1.2652259332023577</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="12"/>
+        <v>1.3955539872971066</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="13"/>
+        <v>1.6053501653140965</v>
+      </c>
+      <c r="AE42">
+        <f t="shared" si="14"/>
+        <v>1.8522464103751739</v>
+      </c>
+      <c r="AF42">
+        <f t="shared" si="15"/>
+        <v>2.2598143020035835</v>
+      </c>
+      <c r="AG42">
+        <f t="shared" si="16"/>
+        <v>2.5498067201903063</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="17"/>
+        <v>2.5199758174215323</v>
+      </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>66</v>
       </c>
@@ -18542,11 +19795,74 @@
       <c r="N43" t="s">
         <v>66</v>
       </c>
+      <c r="O43">
+        <v>23.28</v>
+      </c>
+      <c r="P43">
+        <v>23.98</v>
+      </c>
+      <c r="Q43">
+        <v>25.44</v>
+      </c>
+      <c r="R43">
+        <v>28.34</v>
+      </c>
+      <c r="S43">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="T43">
+        <v>47.5</v>
+      </c>
+      <c r="U43">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="V43">
+        <v>117.22</v>
+      </c>
+      <c r="W43">
+        <v>213.76</v>
+      </c>
       <c r="Y43" t="s">
         <v>66</v>
       </c>
+      <c r="Z43">
+        <f t="shared" si="9"/>
+        <v>1.0502577319587627</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="10"/>
+        <v>1.0963302752293578</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="11"/>
+        <v>1.1717767295597483</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="12"/>
+        <v>1.2858151023288638</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="13"/>
+        <v>1.4083990980834273</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="14"/>
+        <v>1.596421052631579</v>
+      </c>
+      <c r="AF43">
+        <f t="shared" si="15"/>
+        <v>1.8428591489959276</v>
+      </c>
+      <c r="AG43">
+        <f t="shared" si="16"/>
+        <v>2.1366660979355059</v>
+      </c>
+      <c r="AH43">
+        <f t="shared" si="17"/>
+        <v>2.3899232784431139</v>
+      </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>67</v>
       </c>
@@ -18580,11 +19896,74 @@
       <c r="N44" t="s">
         <v>67</v>
       </c>
+      <c r="O44">
+        <v>13.06</v>
+      </c>
+      <c r="P44">
+        <v>13.4</v>
+      </c>
+      <c r="Q44">
+        <v>15.15</v>
+      </c>
+      <c r="R44">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="S44">
+        <v>25.77</v>
+      </c>
+      <c r="T44">
+        <v>40.25</v>
+      </c>
+      <c r="U44">
+        <v>65.2</v>
+      </c>
+      <c r="V44">
+        <v>113.25</v>
+      </c>
+      <c r="W44">
+        <v>228.72</v>
+      </c>
       <c r="Y44" t="s">
         <v>67</v>
       </c>
+      <c r="Z44">
+        <f t="shared" si="9"/>
+        <v>1.0758039816232772</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="10"/>
+        <v>1.1656716417910447</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="11"/>
+        <v>1.2567656765676567</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="12"/>
+        <v>1.3410283315844702</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="13"/>
+        <v>1.5285215366705471</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="14"/>
+        <v>1.7284472049689439</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="15"/>
+        <v>2.0569018404907977</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="16"/>
+        <v>2.3516997792494481</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="17"/>
+        <v>2.3311472542847147</v>
+      </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>68</v>
       </c>
@@ -18618,11 +19997,74 @@
       <c r="N45" t="s">
         <v>68</v>
       </c>
+      <c r="O45">
+        <v>12.46</v>
+      </c>
+      <c r="P45">
+        <v>13.42</v>
+      </c>
+      <c r="Q45">
+        <v>15.62</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+      <c r="S45">
+        <v>28.14</v>
+      </c>
+      <c r="T45">
+        <v>43.79</v>
+      </c>
+      <c r="U45">
+        <v>77.95</v>
+      </c>
+      <c r="V45">
+        <v>132.93</v>
+      </c>
+      <c r="W45">
+        <v>252.33</v>
+      </c>
       <c r="Y45" t="s">
         <v>68</v>
       </c>
+      <c r="Z45">
+        <f t="shared" si="9"/>
+        <v>1.0609951845906902</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="10"/>
+        <v>1.1281669150521609</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="11"/>
+        <v>1.2298335467349553</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="12"/>
+        <v>1.3755000000000002</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="13"/>
+        <v>1.5650319829424306</v>
+      </c>
+      <c r="AE45">
+        <f t="shared" si="14"/>
+        <v>1.7533683489381138</v>
+      </c>
+      <c r="AF45">
+        <f t="shared" si="15"/>
+        <v>1.8232200128287364</v>
+      </c>
+      <c r="AG45">
+        <f t="shared" si="16"/>
+        <v>2.0653727525765442</v>
+      </c>
+      <c r="AH45">
+        <f t="shared" si="17"/>
+        <v>2.1204771529346487</v>
+      </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>69</v>
       </c>
@@ -18656,11 +20098,74 @@
       <c r="N46" t="s">
         <v>69</v>
       </c>
+      <c r="O46">
+        <v>12.49</v>
+      </c>
+      <c r="P46">
+        <v>13.84</v>
+      </c>
+      <c r="Q46">
+        <v>16.52</v>
+      </c>
+      <c r="R46">
+        <v>21.31</v>
+      </c>
+      <c r="S46">
+        <v>30.54</v>
+      </c>
+      <c r="T46">
+        <v>49.7</v>
+      </c>
+      <c r="U46">
+        <v>87.67</v>
+      </c>
+      <c r="V46">
+        <v>150.34</v>
+      </c>
+      <c r="W46">
+        <v>290.27</v>
+      </c>
       <c r="Y46" t="s">
         <v>69</v>
       </c>
+      <c r="Z46">
+        <f t="shared" si="9"/>
+        <v>1.0528422738190553</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="10"/>
+        <v>1.1098265895953756</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="11"/>
+        <v>1.2033898305084745</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="12"/>
+        <v>1.358517128108869</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="13"/>
+        <v>1.5288146692861819</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="14"/>
+        <v>1.6738430583501005</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="15"/>
+        <v>1.7652560739135392</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="16"/>
+        <v>1.9684049487827591</v>
+      </c>
+      <c r="AH46">
+        <f t="shared" si="17"/>
+        <v>2.0036862231715302</v>
+      </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>70</v>
       </c>
@@ -18694,11 +20199,74 @@
       <c r="N47" t="s">
         <v>70</v>
       </c>
+      <c r="O47">
+        <v>12.62</v>
+      </c>
+      <c r="P47">
+        <v>14</v>
+      </c>
+      <c r="Q47">
+        <v>16.87</v>
+      </c>
+      <c r="R47">
+        <v>22.18</v>
+      </c>
+      <c r="S47">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="T47">
+        <v>53.51</v>
+      </c>
+      <c r="U47">
+        <v>94.98</v>
+      </c>
+      <c r="V47">
+        <v>177.52</v>
+      </c>
+      <c r="W47">
+        <v>344.83</v>
+      </c>
       <c r="Y47" t="s">
         <v>70</v>
       </c>
+      <c r="Z47">
+        <f t="shared" si="9"/>
+        <v>1.0736925515055469</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="10"/>
+        <v>1.1614285714285715</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="11"/>
+        <v>1.2394783639596918</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="12"/>
+        <v>1.3944995491433725</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="13"/>
+        <v>1.5588418430884186</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="14"/>
+        <v>1.6649224444029154</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="15"/>
+        <v>1.7670035797009898</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="16"/>
+        <v>1.8301599819738619</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="17"/>
+        <v>1.8457790795464433</v>
+      </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>71</v>
       </c>
@@ -18732,11 +20300,74 @@
       <c r="N48" t="s">
         <v>71</v>
       </c>
+      <c r="O48">
+        <v>12.51</v>
+      </c>
+      <c r="P48">
+        <v>14.23</v>
+      </c>
+      <c r="Q48">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="R48">
+        <v>24.45</v>
+      </c>
+      <c r="S48">
+        <v>37.08</v>
+      </c>
+      <c r="T48">
+        <v>63.81</v>
+      </c>
+      <c r="U48">
+        <v>117.58</v>
+      </c>
+      <c r="V48">
+        <v>221.22</v>
+      </c>
+      <c r="W48">
+        <v>434.56</v>
+      </c>
       <c r="Y48" t="s">
         <v>71</v>
       </c>
+      <c r="Z48">
+        <f t="shared" si="9"/>
+        <v>1.0695443645083933</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="10"/>
+        <v>1.1363316936050598</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="11"/>
+        <v>1.2375785265562536</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="12"/>
+        <v>1.3488752556237218</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="13"/>
+        <v>1.4840884573894284</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="14"/>
+        <v>1.5513242438489263</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="15"/>
+        <v>1.6019731246810684</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="16"/>
+        <v>1.6456468673718472</v>
+      </c>
+      <c r="AH48">
+        <f t="shared" si="17"/>
+        <v>1.6764543446244478</v>
+      </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>72</v>
       </c>
@@ -18770,11 +20401,74 @@
       <c r="N49" t="s">
         <v>72</v>
       </c>
+      <c r="O49">
+        <v>12.11</v>
+      </c>
+      <c r="P49">
+        <v>15.2</v>
+      </c>
+      <c r="Q49">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="R49">
+        <v>28.31</v>
+      </c>
+      <c r="S49">
+        <v>46.49</v>
+      </c>
+      <c r="T49">
+        <v>83.16</v>
+      </c>
+      <c r="U49">
+        <v>156.11000000000001</v>
+      </c>
+      <c r="V49">
+        <v>313.69</v>
+      </c>
+      <c r="W49">
+        <v>584.79</v>
+      </c>
       <c r="Y49" t="s">
         <v>72</v>
       </c>
+      <c r="Z49">
+        <f t="shared" si="9"/>
+        <v>1.0668868703550785</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="10"/>
+        <v>1.0907894736842105</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="11"/>
+        <v>1.2395178197064989</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="12"/>
+        <v>1.331684916990463</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="13"/>
+        <v>1.412346741234674</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="14"/>
+        <v>1.5163540163540163</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="15"/>
+        <v>1.5690859009672664</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="16"/>
+        <v>1.4599126526188275</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="17"/>
+        <v>1.5298312214641154</v>
+      </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -18808,11 +20502,74 @@
       <c r="N50" t="s">
         <v>73</v>
       </c>
+      <c r="O50">
+        <v>12.63</v>
+      </c>
+      <c r="P50">
+        <v>16.36</v>
+      </c>
+      <c r="Q50">
+        <v>23.18</v>
+      </c>
+      <c r="R50">
+        <v>37.08</v>
+      </c>
+      <c r="S50">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="T50">
+        <v>119.86</v>
+      </c>
+      <c r="U50">
+        <v>230.77</v>
+      </c>
+      <c r="V50">
+        <v>450.33</v>
+      </c>
+      <c r="W50">
+        <v>847.93</v>
+      </c>
       <c r="Y50" t="s">
         <v>73</v>
       </c>
+      <c r="Z50">
+        <f t="shared" si="9"/>
+        <v>1.0744259699129057</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="10"/>
+        <v>1.1008557457212715</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="11"/>
+        <v>1.1604831751509921</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="12"/>
+        <v>1.2052319309600863</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="13"/>
+        <v>1.2600931677018634</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="14"/>
+        <v>1.259636242282663</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="15"/>
+        <v>1.2648091173029423</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="16"/>
+        <v>1.2689361135167545</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="17"/>
+        <v>1.3221374405906148</v>
+      </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>74</v>
       </c>
@@ -18846,11 +20603,74 @@
       <c r="N51" t="s">
         <v>74</v>
       </c>
+      <c r="O51">
+        <v>15.1</v>
+      </c>
+      <c r="P51">
+        <v>20.5</v>
+      </c>
+      <c r="Q51">
+        <v>31.44</v>
+      </c>
+      <c r="R51">
+        <v>52.46</v>
+      </c>
+      <c r="S51">
+        <v>98.91</v>
+      </c>
+      <c r="T51">
+        <v>186.02</v>
+      </c>
+      <c r="U51">
+        <v>366.18</v>
+      </c>
+      <c r="V51">
+        <v>698.2</v>
+      </c>
+      <c r="W51">
+        <v>1172.17</v>
+      </c>
       <c r="Y51" t="s">
         <v>74</v>
       </c>
+      <c r="Z51">
+        <f t="shared" si="9"/>
+        <v>1.0655629139072849</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="10"/>
+        <v>1.110731707317073</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="11"/>
+        <v>1.1558524173027991</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="12"/>
+        <v>1.2026305756767062</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="13"/>
+        <v>1.1849155798200386</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="14"/>
+        <v>1.2124502741640684</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="15"/>
+        <v>1.1905347097056092</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="16"/>
+        <v>1.2417358922944715</v>
+      </c>
+      <c r="AH51">
+        <f t="shared" si="17"/>
+        <v>1.4914730798433673</v>
+      </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>75</v>
       </c>
@@ -18884,11 +20704,74 @@
       <c r="N52" t="s">
         <v>75</v>
       </c>
+      <c r="O52">
+        <v>17.62</v>
+      </c>
+      <c r="P52">
+        <v>23.95</v>
+      </c>
+      <c r="Q52">
+        <v>38.21</v>
+      </c>
+      <c r="R52">
+        <v>65.11</v>
+      </c>
+      <c r="S52">
+        <v>119.96</v>
+      </c>
+      <c r="T52">
+        <v>223.51</v>
+      </c>
+      <c r="U52">
+        <v>410.88</v>
+      </c>
+      <c r="V52">
+        <v>733.01</v>
+      </c>
+      <c r="W52">
+        <v>1125.69</v>
+      </c>
       <c r="Y52" t="s">
         <v>75</v>
       </c>
+      <c r="Z52">
+        <f t="shared" si="9"/>
+        <v>1.2951191827468784</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="10"/>
+        <v>1.384133611691023</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="11"/>
+        <v>1.4750065427898456</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="12"/>
+        <v>1.5632007372139456</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="13"/>
+        <v>1.5888629543181061</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="14"/>
+        <v>1.5932620464408753</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="15"/>
+        <v>1.6615070093457942</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="16"/>
+        <v>1.8353092045128989</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="17"/>
+        <v>2.33849461219341</v>
+      </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>76</v>
       </c>
@@ -18922,13 +20805,76 @@
       <c r="N53" t="s">
         <v>76</v>
       </c>
+      <c r="O53">
+        <v>24.89</v>
+      </c>
+      <c r="P53">
+        <v>37.43</v>
+      </c>
+      <c r="Q53">
+        <v>63.63</v>
+      </c>
+      <c r="R53">
+        <v>111.31</v>
+      </c>
+      <c r="S53">
+        <v>210.45</v>
+      </c>
+      <c r="T53">
+        <v>326.35000000000002</v>
+      </c>
+      <c r="U53">
+        <v>480.67</v>
+      </c>
+      <c r="V53">
+        <v>797.51</v>
+      </c>
+      <c r="W53">
+        <v>1457.58</v>
+      </c>
       <c r="Y53" t="s">
         <v>76</v>
       </c>
+      <c r="Z53">
+        <f t="shared" si="9"/>
+        <v>1.3121735636801928</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="10"/>
+        <v>1.3238044349452309</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="11"/>
+        <v>1.3463774948923464</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="12"/>
+        <v>1.4336537597700119</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="13"/>
+        <v>1.4221905440722262</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="14"/>
+        <v>1.4329707369388691</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="15"/>
+        <v>1.7082613851498949</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="16"/>
+        <v>1.9183458514626777</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="17"/>
+        <v>2.0891409047873877</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C6:K27 O6:W27 Z6:AH9 Z10:AB10">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C6:K27 O6:W27 Z6:AH27">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18939,8 +20885,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:K53 C6:K27 O6:W27 Z6:AH27 O32:W53">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="C32:K53 C6:K27 O6:W27 O32:W53 Z6:AH27">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z32:AH53 AJ32 AJ47">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ6">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18960,8 +20954,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:BC125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18974,16 +20968,16 @@
   <sheetData>
     <row r="1" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI1" t="s">
         <v>93</v>
-      </c>
-      <c r="X1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="2:44" x14ac:dyDescent="0.25">
@@ -18994,10 +20988,10 @@
         <v>86</v>
       </c>
       <c r="X2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:44" x14ac:dyDescent="0.25">
@@ -19121,25 +21115,25 @@
         <v>0.34</v>
       </c>
       <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <v>0.33</v>
+      </c>
+      <c r="G4">
+        <v>0.35</v>
+      </c>
+      <c r="H4">
+        <v>0.33</v>
+      </c>
+      <c r="I4">
+        <v>0.33</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="K4">
         <v>0.36</v>
-      </c>
-      <c r="F4">
-        <v>0.36</v>
-      </c>
-      <c r="G4">
-        <v>0.34</v>
-      </c>
-      <c r="H4">
-        <v>0.34</v>
-      </c>
-      <c r="I4">
-        <v>0.35</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="K4">
-        <v>0.37</v>
       </c>
       <c r="M4" t="s">
         <v>61</v>
@@ -19237,13 +21231,13 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D5">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E5">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="F5">
         <v>0.35</v>
@@ -19252,16 +21246,16 @@
         <v>0.34</v>
       </c>
       <c r="H5">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
         <v>0.36</v>
       </c>
       <c r="J5" s="2">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="K5">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="M5" t="s">
         <v>62</v>
@@ -19359,31 +21353,31 @@
         <v>63</v>
       </c>
       <c r="C6">
+        <v>0.33</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+      <c r="E6">
+        <v>0.32</v>
+      </c>
+      <c r="F6">
         <v>0.31</v>
       </c>
-      <c r="D6">
-        <v>0.32</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.33</v>
       </c>
-      <c r="F6">
-        <v>0.37</v>
-      </c>
-      <c r="G6">
-        <v>0.36</v>
-      </c>
       <c r="H6">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I6">
         <v>0.33</v>
       </c>
       <c r="J6" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="K6">
         <v>0.35</v>
-      </c>
-      <c r="K6">
-        <v>0.34</v>
       </c>
       <c r="M6" t="s">
         <v>63</v>
@@ -19481,31 +21475,31 @@
         <v>64</v>
       </c>
       <c r="C7">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
         <v>0.25</v>
       </c>
       <c r="E7">
+        <v>0.24</v>
+      </c>
+      <c r="F7">
+        <v>0.24</v>
+      </c>
+      <c r="G7">
         <v>0.25</v>
       </c>
-      <c r="F7">
-        <v>0.26</v>
-      </c>
-      <c r="G7">
-        <v>0.32</v>
-      </c>
       <c r="H7">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="I7">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="J7" s="2">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K7">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -19603,31 +21597,31 @@
         <v>65</v>
       </c>
       <c r="C8">
+        <v>0.23</v>
+      </c>
+      <c r="D8">
         <v>0.22</v>
       </c>
-      <c r="D8">
-        <v>0.23</v>
-      </c>
       <c r="E8">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F8">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
         <v>0.23</v>
       </c>
       <c r="H8">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I8">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="J8" s="2">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K8">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="M8" t="s">
         <v>65</v>
@@ -19725,16 +21719,16 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D9">
         <v>0.23</v>
       </c>
       <c r="E9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G9">
         <v>0.24</v>
@@ -19746,7 +21740,7 @@
         <v>0.25</v>
       </c>
       <c r="J9" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K9">
         <v>0.34</v>
@@ -19856,22 +21850,22 @@
         <v>0.17</v>
       </c>
       <c r="F10">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="G10">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I10">
         <v>0.21</v>
       </c>
       <c r="J10" s="2">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K10">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="M10" t="s">
         <v>67</v>
@@ -19969,7 +21963,7 @@
         <v>68</v>
       </c>
       <c r="C11">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D11">
         <v>0.17</v>
@@ -19978,19 +21972,19 @@
         <v>0.18</v>
       </c>
       <c r="F11">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G11">
         <v>0.18</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I11">
         <v>0.22</v>
       </c>
       <c r="J11" s="2">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K11">
         <v>0.37</v>
@@ -20091,16 +22085,16 @@
         <v>69</v>
       </c>
       <c r="C12">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D12">
         <v>0.18</v>
       </c>
       <c r="E12">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="G12">
         <v>0.19</v>
@@ -20115,7 +22109,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K12">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="M12" t="s">
         <v>69</v>
@@ -20216,16 +22210,16 @@
         <v>0.18</v>
       </c>
       <c r="D13">
+        <v>0.18</v>
+      </c>
+      <c r="E13">
+        <v>0.18</v>
+      </c>
+      <c r="F13">
+        <v>0.18</v>
+      </c>
+      <c r="G13">
         <v>0.19</v>
-      </c>
-      <c r="E13">
-        <v>0.19</v>
-      </c>
-      <c r="F13">
-        <v>0.2</v>
-      </c>
-      <c r="G13">
-        <v>0.2</v>
       </c>
       <c r="H13">
         <v>0.21</v>
@@ -20335,22 +22329,22 @@
         <v>71</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="E14">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="F14">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="H14">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I14">
         <v>0.23</v>
@@ -20359,7 +22353,7 @@
         <v>0.31</v>
       </c>
       <c r="K14">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="M14" t="s">
         <v>71</v>
@@ -20457,31 +22451,31 @@
         <v>72</v>
       </c>
       <c r="C15">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="D15">
         <v>0.14000000000000001</v>
       </c>
       <c r="E15">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F15">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="G15">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="H15">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="I15">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="J15" s="2">
         <v>0.36</v>
       </c>
       <c r="K15">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="M15" t="s">
         <v>72</v>
@@ -20579,31 +22573,31 @@
         <v>73</v>
       </c>
       <c r="C16">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D16">
         <v>0.19</v>
       </c>
       <c r="E16">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F16">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="G16">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H16">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I16">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J16" s="2">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="K16">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="M16" t="s">
         <v>73</v>
@@ -20701,31 +22695,31 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D17">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
+        <v>0.16</v>
+      </c>
+      <c r="F17">
+        <v>0.18</v>
+      </c>
+      <c r="G17">
         <v>0.21</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.26</v>
       </c>
-      <c r="G17">
-        <v>0.25</v>
-      </c>
-      <c r="H17">
-        <v>0.27</v>
-      </c>
       <c r="I17">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="J17" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="K17">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M17" t="s">
         <v>74</v>
@@ -20823,31 +22817,31 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="D18">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E18">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="F18">
-        <v>0.39</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G18">
-        <v>0.66</v>
+        <v>0.42</v>
       </c>
       <c r="H18">
-        <v>0.63</v>
+        <v>1.34</v>
       </c>
       <c r="I18">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="J18" s="2">
-        <v>0.71</v>
+        <v>1.61</v>
       </c>
       <c r="K18">
-        <v>2.3199999999999998</v>
+        <v>3.35</v>
       </c>
       <c r="M18" t="s">
         <v>75</v>
@@ -20945,31 +22939,31 @@
         <v>76</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="D19">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="E19">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="F19">
-        <v>0.64</v>
+        <v>1.07</v>
       </c>
       <c r="G19">
-        <v>1.29</v>
+        <v>2.06</v>
       </c>
       <c r="H19">
-        <v>1.72</v>
+        <v>3.58</v>
       </c>
       <c r="I19">
-        <v>1.1399999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="J19" s="2">
-        <v>1.06</v>
+        <v>13.79</v>
       </c>
       <c r="K19">
-        <v>2.99</v>
+        <v>24.86</v>
       </c>
       <c r="M19" t="s">
         <v>76</v>
@@ -21070,10 +23064,10 @@
         <v>87</v>
       </c>
       <c r="X23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AI23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:44" x14ac:dyDescent="0.25">
@@ -21197,19 +23191,19 @@
         <v>0.34</v>
       </c>
       <c r="E25">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F25">
+        <v>0.35</v>
+      </c>
+      <c r="G25">
         <v>0.34</v>
-      </c>
-      <c r="G25">
-        <v>0.35</v>
       </c>
       <c r="H25">
         <v>0.34</v>
       </c>
       <c r="I25">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="J25">
         <v>0.35</v>
@@ -21313,31 +23307,31 @@
         <v>62</v>
       </c>
       <c r="C26">
+        <v>0.45</v>
+      </c>
+      <c r="D26">
         <v>0.47</v>
       </c>
-      <c r="D26">
+      <c r="E26">
+        <v>0.45</v>
+      </c>
+      <c r="F26">
+        <v>0.44</v>
+      </c>
+      <c r="G26">
+        <v>0.47</v>
+      </c>
+      <c r="H26">
+        <v>0.44</v>
+      </c>
+      <c r="I26">
+        <v>0.45</v>
+      </c>
+      <c r="J26">
+        <v>0.44</v>
+      </c>
+      <c r="K26">
         <v>0.46</v>
-      </c>
-      <c r="E26">
-        <v>0.47</v>
-      </c>
-      <c r="F26">
-        <v>0.47</v>
-      </c>
-      <c r="G26">
-        <v>0.46</v>
-      </c>
-      <c r="H26">
-        <v>0.49</v>
-      </c>
-      <c r="I26">
-        <v>0.48</v>
-      </c>
-      <c r="J26">
-        <v>0.46</v>
-      </c>
-      <c r="K26">
-        <v>0.48</v>
       </c>
       <c r="M26" t="s">
         <v>62</v>
@@ -21435,31 +23429,31 @@
         <v>63</v>
       </c>
       <c r="C27">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="D27">
         <v>0.46</v>
       </c>
       <c r="E27">
+        <v>0.47</v>
+      </c>
+      <c r="F27">
         <v>0.5</v>
       </c>
-      <c r="F27">
-        <v>0.48</v>
-      </c>
       <c r="G27">
-        <v>0.52</v>
+        <v>0.47</v>
       </c>
       <c r="H27">
         <v>0.47</v>
       </c>
       <c r="I27">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="J27">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="K27">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="M27" t="s">
         <v>63</v>
@@ -21560,28 +23554,28 @@
         <v>0.4</v>
       </c>
       <c r="D28">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="E28">
         <v>0.43</v>
       </c>
       <c r="F28">
+        <v>0.42</v>
+      </c>
+      <c r="G28">
         <v>0.44</v>
       </c>
-      <c r="G28">
-        <v>0.43</v>
-      </c>
       <c r="H28">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="I28">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="J28">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M28" t="s">
         <v>64</v>
@@ -21679,31 +23673,31 @@
         <v>65</v>
       </c>
       <c r="C29">
+        <v>0.38</v>
+      </c>
+      <c r="D29">
+        <v>0.38</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="F29">
         <v>0.36</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>0.39</v>
       </c>
-      <c r="E29">
-        <v>0.38</v>
-      </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.41</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>0.4</v>
-      </c>
-      <c r="H29">
-        <v>0.39</v>
-      </c>
-      <c r="I29">
-        <v>0.42</v>
       </c>
       <c r="J29">
         <v>0.45</v>
       </c>
       <c r="K29">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="M29" t="s">
         <v>65</v>
@@ -21801,31 +23795,31 @@
         <v>66</v>
       </c>
       <c r="C30">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="D30">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="E30">
         <v>0.38</v>
       </c>
       <c r="F30">
+        <v>0.37</v>
+      </c>
+      <c r="G30">
         <v>0.39</v>
       </c>
-      <c r="G30">
-        <v>0.38</v>
-      </c>
       <c r="H30">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I30">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="J30">
         <v>0.45</v>
       </c>
       <c r="K30">
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M30" t="s">
         <v>66</v>
@@ -21926,28 +23920,28 @@
         <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E31">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F31">
         <v>0.21</v>
       </c>
       <c r="G31">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H31">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I31">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J31">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="K31">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="M31" t="s">
         <v>67</v>
@@ -22045,31 +24039,31 @@
         <v>68</v>
       </c>
       <c r="C32">
+        <v>0.18</v>
+      </c>
+      <c r="D32">
+        <v>0.18</v>
+      </c>
+      <c r="E32">
         <v>0.19</v>
       </c>
-      <c r="D32">
+      <c r="F32">
+        <v>0.18</v>
+      </c>
+      <c r="G32">
         <v>0.2</v>
       </c>
-      <c r="E32">
-        <v>0.21</v>
-      </c>
-      <c r="F32">
-        <v>0.19</v>
-      </c>
-      <c r="G32">
-        <v>0.21</v>
-      </c>
       <c r="H32">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I32">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="J32">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="K32">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="M32" t="s">
         <v>68</v>
@@ -22167,28 +24161,28 @@
         <v>69</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="D33">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E33">
         <v>0.2</v>
       </c>
       <c r="F33">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G33">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="H33">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I33">
         <v>0.3</v>
       </c>
       <c r="J33">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="K33">
         <v>0.67</v>
@@ -22289,31 +24283,31 @@
         <v>70</v>
       </c>
       <c r="C34">
+        <v>0.18</v>
+      </c>
+      <c r="D34">
         <v>0.21</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.22</v>
       </c>
-      <c r="E34">
-        <v>0.24</v>
-      </c>
       <c r="F34">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G34">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="H34">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I34">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="J34">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="K34">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="M34" t="s">
         <v>70</v>
@@ -22411,31 +24405,31 @@
         <v>71</v>
       </c>
       <c r="C35">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E35">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="F35">
         <v>0.19</v>
       </c>
       <c r="G35">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H35">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I35">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="J35">
-        <v>0.54</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K35">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="M35" t="s">
         <v>71</v>
@@ -22536,28 +24530,28 @@
         <v>0.17</v>
       </c>
       <c r="D36">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E36">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F36">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G36">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="H36">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="I36">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="J36">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="K36">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="M36" t="s">
         <v>72</v>
@@ -22655,31 +24649,31 @@
         <v>73</v>
       </c>
       <c r="C37">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D37">
         <v>0.19</v>
       </c>
       <c r="E37">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F37">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="G37">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="H37">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="I37">
-        <v>0.46</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J37">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="K37">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="M37" t="s">
         <v>73</v>
@@ -22777,31 +24771,31 @@
         <v>74</v>
       </c>
       <c r="C38">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="D38">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E38">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="G38">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="H38">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I38">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="J38">
-        <v>1.05</v>
+        <v>1.54</v>
       </c>
       <c r="K38">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="M38" t="s">
         <v>74</v>
@@ -22899,31 +24893,31 @@
         <v>75</v>
       </c>
       <c r="C39">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="D39">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="E39">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="F39">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="G39">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="H39">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="I39">
-        <v>1.1499999999999999</v>
+        <v>1.29</v>
       </c>
       <c r="J39">
-        <v>1.41</v>
+        <v>2.25</v>
       </c>
       <c r="K39">
-        <v>2.17</v>
+        <v>3.08</v>
       </c>
       <c r="M39" t="s">
         <v>75</v>
@@ -23021,31 +25015,31 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D40">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="E40">
-        <v>0.61</v>
+        <v>0.76</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="G40">
-        <v>1.65</v>
+        <v>2.61</v>
       </c>
       <c r="H40">
-        <v>2.09</v>
+        <v>4.21</v>
       </c>
       <c r="I40">
-        <v>1.77</v>
+        <v>6.23</v>
       </c>
       <c r="J40">
-        <v>1.92</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="K40">
-        <v>3.61</v>
+        <v>16.79</v>
       </c>
       <c r="M40" t="s">
         <v>76</v>
@@ -23140,19 +25134,19 @@
     </row>
     <row r="43" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>627</v>
+      </c>
+      <c r="M43" t="s">
+        <v>629</v>
+      </c>
+      <c r="X43" t="s">
         <v>628</v>
       </c>
-      <c r="M43" t="s">
-        <v>630</v>
-      </c>
-      <c r="X43" t="s">
-        <v>629</v>
-      </c>
       <c r="AI43" t="s">
+        <v>632</v>
+      </c>
+      <c r="AT43" t="s">
         <v>633</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="44" spans="2:55" x14ac:dyDescent="0.25">
@@ -26463,30 +28457,30 @@
     </row>
     <row r="65" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>627</v>
+      </c>
+      <c r="M65" t="s">
+        <v>629</v>
+      </c>
+      <c r="X65" t="s">
         <v>628</v>
       </c>
-      <c r="M65" t="s">
-        <v>630</v>
-      </c>
-      <c r="X65" t="s">
-        <v>629</v>
-      </c>
       <c r="AI65" t="s">
+        <v>632</v>
+      </c>
+      <c r="AT65" t="s">
         <v>633</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="66" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="X66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AI66" t="s">
         <v>86</v>
@@ -29786,153 +31780,153 @@
     </row>
     <row r="84" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="N84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Q84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R84" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="S84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="U84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="V84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="W84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="X84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Z84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AB84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AC84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AD84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AE84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AH84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AI84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AJ84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AK84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AL84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AN84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AO84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AP84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AQ84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AR84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AS84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AT84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AU84" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="85" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>627</v>
+      </c>
+      <c r="M85" t="s">
+        <v>629</v>
+      </c>
+      <c r="X85" t="s">
         <v>628</v>
-      </c>
-      <c r="M85" t="s">
-        <v>630</v>
-      </c>
-      <c r="X85" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="86" spans="2:55" x14ac:dyDescent="0.25">
@@ -31503,24 +33497,24 @@
     </row>
     <row r="107" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M107" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="X107" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="108" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="X108" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="2:33" x14ac:dyDescent="0.25">
@@ -33150,7 +35144,7 @@
   <dimension ref="B2:BU83"/>
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ57" sqref="AQ57"/>
+      <selection activeCell="AO63" sqref="AO63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33163,16 +35157,16 @@
         <v>54</v>
       </c>
       <c r="AA2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM2" t="s">
         <v>635</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AY2" t="s">
         <v>636</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BK2" t="s">
         <v>637</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="3" spans="2:73" x14ac:dyDescent="0.25">
@@ -35665,13 +37659,13 @@
     </row>
     <row r="16" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA16" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM16" t="s">
         <v>635</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AY16" t="s">
         <v>636</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="17" spans="2:73" x14ac:dyDescent="0.25">
@@ -38164,13 +40158,13 @@
     </row>
     <row r="30" spans="2:73" x14ac:dyDescent="0.25">
       <c r="AA30" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM30" t="s">
         <v>635</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AY30" t="s">
         <v>636</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="31" spans="2:73" x14ac:dyDescent="0.25">
@@ -48220,7 +50214,7 @@
   <dimension ref="B2:X71"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH36" sqref="AH36"/>
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/benchmarks/lester_allocators/lester_results.xlsx
+++ b/benchmarks/lester_allocators/lester_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" tabRatio="594" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12105" tabRatio="594"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4811" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4923" uniqueCount="642">
   <si>
     <t>DS1: vector&lt;int&gt;</t>
   </si>
@@ -1953,6 +1953,9 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>(Ratio new scheme to old scheme)</t>
   </si>
 </sst>
 </file>
@@ -2273,10 +2276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,15 +2301,18 @@
     <col min="15" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>54</v>
       </c>
+      <c r="T1" t="s">
+        <v>641</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2352,8 +2358,29 @@
       <c r="R2" t="s">
         <v>16</v>
       </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -2396,8 +2423,29 @@
       <c r="R3" t="s">
         <v>17</v>
       </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>18</v>
       </c>
@@ -2416,8 +2464,17 @@
       <c r="R4" t="s">
         <v>18</v>
       </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -2466,8 +2523,35 @@
       <c r="R5" t="s">
         <v>12</v>
       </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -2516,8 +2600,43 @@
       <c r="R6">
         <v>0.82</v>
       </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6">
+        <f>C6/L6</f>
+        <v>4.291666666666667</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V16" si="0">D6/M6</f>
+        <v>4.5609756097560981</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W16" si="1">E6/N6</f>
+        <v>1.4390243902439024</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ref="X6:X16" si="2">F6/O6</f>
+        <v>5.021505376344086</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ref="Y6:Y16" si="3">G6/P6</f>
+        <v>3.531531531531531</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z16" si="4">H6/Q6</f>
+        <v>5.6233766233766236</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA16" si="5">I6/R6</f>
+        <v>4.51219512195122</v>
+      </c>
+      <c r="AC6">
+        <f>AVERAGE(U6:AA16)</f>
+        <v>1.5867389231677316</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -2566,8 +2685,39 @@
       <c r="R7">
         <v>0.57999999999999996</v>
       </c>
+      <c r="T7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U16" si="6">C7/L7</f>
+        <v>2.8536585365853657</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>1.1052631578947367</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>2.9285714285714284</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>3.9824561403508776</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="5"/>
+        <v>3.3793103448275863</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -2616,8 +2766,39 @@
       <c r="R8">
         <v>0.46</v>
       </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1.1944444444444444</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>3.510204081632653</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>2.88</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>2.7954545454545454</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="5"/>
+        <v>2.3695652173913042</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -2666,8 +2847,39 @@
       <c r="R9">
         <v>0.4</v>
       </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="6"/>
+        <v>1.5555555555555558</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>1.342857142857143</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>2.2926829268292681</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>2.15</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="4"/>
+        <v>1.9487179487179487</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="5"/>
+        <v>1.675</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -2716,8 +2928,39 @@
       <c r="R10">
         <v>0.37</v>
       </c>
+      <c r="T10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="6"/>
+        <v>1.0857142857142859</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1.0588235294117645</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>1.5526315789473684</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="4"/>
+        <v>1.3783783783783785</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="5"/>
+        <v>1.2702702702702702</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -2766,8 +3009,39 @@
       <c r="R11">
         <v>0.35</v>
       </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="6"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>1.0833333333333335</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="4"/>
+        <v>1.0857142857142859</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="5"/>
+        <v>1.0285714285714287</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -2816,8 +3090,39 @@
       <c r="R12">
         <v>0.34</v>
       </c>
+      <c r="T12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="6"/>
+        <v>0.85294117647058809</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0.94285714285714295</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="4"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>0.91176470588235292</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -2866,8 +3171,39 @@
       <c r="R13">
         <v>0.34</v>
       </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="6"/>
+        <v>0.77142857142857157</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0.82857142857142851</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>0.93548387096774188</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="4"/>
+        <v>0.82857142857142851</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>0.85294117647058809</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -2916,8 +3252,39 @@
       <c r="R14">
         <v>0.34</v>
       </c>
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="6"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>0.90322580645161299</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="5"/>
+        <v>0.85294117647058809</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -2966,8 +3333,39 @@
       <c r="R15">
         <v>0.35</v>
       </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="6"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0.79411764705882348</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>0.74285714285714288</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -3016,13 +3414,44 @@
       <c r="R16">
         <v>0.34</v>
       </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>0.74285714285714288</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>0.87096774193548399</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="4"/>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="5"/>
+        <v>0.76470588235294112</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -3065,8 +3494,29 @@
       <c r="R19" t="s">
         <v>16</v>
       </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -3109,8 +3559,29 @@
       <c r="R20" t="s">
         <v>17</v>
       </c>
+      <c r="U20" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>18</v>
       </c>
@@ -3129,8 +3600,17 @@
       <c r="R21" t="s">
         <v>18</v>
       </c>
+      <c r="W21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -3179,8 +3659,35 @@
       <c r="R22" t="s">
         <v>12</v>
       </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -3229,8 +3736,43 @@
       <c r="R23">
         <v>7.85</v>
       </c>
+      <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U33" si="7">C23/L23</f>
+        <v>6.7734806629834248</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V33" si="8">D23/M23</f>
+        <v>2.4065155807365439</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W33" si="9">E23/N23</f>
+        <v>3.5785953177257519</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ref="X23:X33" si="10">F23/O23</f>
+        <v>11.913957934990439</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ref="Y23:Y33" si="11">G23/P23</f>
+        <v>10.653846153846153</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" ref="Z23:Z33" si="12">H23/Q23</f>
+        <v>10.331497797356828</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AA33" si="13">I23/R23</f>
+        <v>8.9210191082802552</v>
+      </c>
+      <c r="AC23">
+        <f>AVERAGE(U23:AA33)</f>
+        <v>5.9570466099328714</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3821,39 @@
       <c r="R24">
         <v>8.58</v>
       </c>
+      <c r="T24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>6.7574827321565616</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="8"/>
+        <v>2.5849056603773586</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>3.7281249999999999</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="10"/>
+        <v>3.8906657963446474</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="11"/>
+        <v>3.3934664246823956</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="12"/>
+        <v>9.2517552657973905</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="13"/>
+        <v>7.9487179487179489</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -3329,8 +3902,39 @@
       <c r="R25">
         <v>10.96</v>
       </c>
+      <c r="T25" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>3.0532663316582913</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="8"/>
+        <v>2.8017638036809815</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>3.3218785796105381</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="10"/>
+        <v>2.5799823243482103</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="11"/>
+        <v>2.132166705042597</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="12"/>
+        <v>7.752411575562701</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="13"/>
+        <v>6.5337591240875907</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>22</v>
       </c>
@@ -3379,8 +3983,39 @@
       <c r="R26">
         <v>11.27</v>
       </c>
+      <c r="T26" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>2.1975648977716515</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="8"/>
+        <v>3.1262485017978423</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>3.1096446700507614</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="10"/>
+        <v>2.0315972222222221</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="11"/>
+        <v>2.4394022234372152</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="12"/>
+        <v>7.7616191904047982</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="13"/>
+        <v>6.7657497781721387</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -3429,8 +4064,39 @@
       <c r="R27">
         <v>12.59</v>
       </c>
+      <c r="T27" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="7"/>
+        <v>1.9447828650029475</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>3.3878281622911692</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>3.4959919839679356</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>1.9799713876967098</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="11"/>
+        <v>2.0804727979274613</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="12"/>
+        <v>7.9627329192546581</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="13"/>
+        <v>6.7704527402700556</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -3479,8 +4145,39 @@
       <c r="R28">
         <v>13.49</v>
       </c>
+      <c r="T28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>5.4472081218274111</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>3.986146095717884</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>3.4236047575480333</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>3.6730958749824016</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="11"/>
+        <v>3.5002251238181001</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="12"/>
+        <v>7.7487745098039209</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="13"/>
+        <v>7.2564862861378803</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -3529,8 +4226,39 @@
       <c r="R29">
         <v>13.14</v>
       </c>
+      <c r="T29" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>1.7348394768133175</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="8"/>
+        <v>4.7982385908726979</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>3.0608974358974361</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>3.947166921898928</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="11"/>
+        <v>4.5400252348240571</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="12"/>
+        <v>10.357320099255583</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="13"/>
+        <v>9.961948249619482</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -3579,8 +4307,39 @@
       <c r="R30">
         <v>14.06</v>
       </c>
+      <c r="T30" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>2.0761918689675345</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="8"/>
+        <v>9.6885311871227362</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>4.011504424778761</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>4.7202680067001674</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="11"/>
+        <v>4.6682712728302427</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="12"/>
+        <v>11.411730545876887</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="13"/>
+        <v>14.132290184921763</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
@@ -3629,8 +4388,39 @@
       <c r="R31">
         <v>21.63</v>
       </c>
+      <c r="T31" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>2.7169230769230768</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="8"/>
+        <v>8.2862218712988547</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>6.419926199261992</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>4.1674925668979181</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="11"/>
+        <v>4.4008643976229065</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="12"/>
+        <v>23.60159574468085</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="13"/>
+        <v>16.435968562182154</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
@@ -3679,8 +4469,39 @@
       <c r="R32">
         <v>36.090000000000003</v>
       </c>
+      <c r="T32" t="s">
+        <v>28</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>3.4984149708559156</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="8"/>
+        <v>9.3045060173523648</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>5.9914209115281505</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>3.7926050420168065</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="11"/>
+        <v>4.3585701191567372</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="12"/>
+        <v>11.360350492880615</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="13"/>
+        <v>13.308395677472983</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -3729,13 +4550,44 @@
       <c r="R33">
         <v>49.47</v>
       </c>
+      <c r="T33" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>3.3211081794195252</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="8"/>
+        <v>7.3419027632039171</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>3.7479909996785596</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="10"/>
+        <v>3.9659626320064989</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="11"/>
+        <v>5.4097522164128211</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="12"/>
+        <v>7.2354305991538146</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="13"/>
+        <v>10.519102486355367</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>13</v>
       </c>
@@ -3778,8 +4630,29 @@
       <c r="R36" t="s">
         <v>16</v>
       </c>
+      <c r="U36" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" t="s">
+        <v>14</v>
+      </c>
+      <c r="W36" t="s">
+        <v>14</v>
+      </c>
+      <c r="X36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -3822,8 +4695,29 @@
       <c r="R37" t="s">
         <v>17</v>
       </c>
+      <c r="U37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" t="s">
+        <v>17</v>
+      </c>
+      <c r="X37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -3842,8 +4736,17 @@
       <c r="R38" t="s">
         <v>18</v>
       </c>
+      <c r="W38" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>1</v>
       </c>
@@ -3892,8 +4795,35 @@
       <c r="R39" t="s">
         <v>12</v>
       </c>
+      <c r="T39" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" t="s">
+        <v>5</v>
+      </c>
+      <c r="W39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>19</v>
       </c>
@@ -3942,8 +4872,43 @@
       <c r="R40">
         <v>0.31</v>
       </c>
+      <c r="T40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:U50" si="14">C40/L40</f>
+        <v>424.83870967741933</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ref="V40:V50" si="15">D40/M40</f>
+        <v>432.10714285714278</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ref="W40:W50" si="16">E40/N40</f>
+        <v>181.93103448275863</v>
+      </c>
+      <c r="X40">
+        <f t="shared" ref="X40:X50" si="17">F40/O40</f>
+        <v>478.56249999999994</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40:Y50" si="18">G40/P40</f>
+        <v>374.6</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" ref="Z40:Z50" si="19">H40/Q40</f>
+        <v>492.00000000000006</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ref="AA40:AA50" si="20">I40/R40</f>
+        <v>314.9677419354839</v>
+      </c>
+      <c r="AC40">
+        <f>AVERAGE(U40:AA50)</f>
+        <v>482.0426978724833</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>20</v>
       </c>
@@ -3992,8 +4957,39 @@
       <c r="R41">
         <v>0.28999999999999998</v>
       </c>
+      <c r="T41" t="s">
+        <v>20</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="14"/>
+        <v>430.35483870967744</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="15"/>
+        <v>415.60714285714283</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="16"/>
+        <v>197.40740740740739</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="17"/>
+        <v>532.24137931034488</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="18"/>
+        <v>383.24137931034488</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="19"/>
+        <v>459.31034482758622</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="20"/>
+        <v>304.9655172413793</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -4042,8 +5038,39 @@
       <c r="R42">
         <v>0.3</v>
       </c>
+      <c r="T42" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="14"/>
+        <v>349.36842105263156</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="15"/>
+        <v>426.71428571428567</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="16"/>
+        <v>175.6875</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="17"/>
+        <v>385.3</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="18"/>
+        <v>291.18421052631578</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="19"/>
+        <v>470.00000000000006</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="20"/>
+        <v>303.56666666666666</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>22</v>
       </c>
@@ -4092,8 +5119,39 @@
       <c r="R43">
         <v>0.28999999999999998</v>
       </c>
+      <c r="T43" t="s">
+        <v>22</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="14"/>
+        <v>310.12765957446811</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>439.75862068965523</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="16"/>
+        <v>206.21428571428569</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="17"/>
+        <v>305.36</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="18"/>
+        <v>230.6</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" si="19"/>
+        <v>463.33333333333337</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="20"/>
+        <v>329.58620689655174</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>23</v>
       </c>
@@ -4142,8 +5200,39 @@
       <c r="R44">
         <v>0.28000000000000003</v>
       </c>
+      <c r="T44" t="s">
+        <v>23</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="14"/>
+        <v>258.07547169811318</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="15"/>
+        <v>407.96774193548384</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="16"/>
+        <v>207.75</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="17"/>
+        <v>269.69090909090909</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="18"/>
+        <v>202.66666666666666</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="19"/>
+        <v>493.48275862068971</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="20"/>
+        <v>349.28571428571422</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -4192,8 +5281,39 @@
       <c r="R45">
         <v>0.28999999999999998</v>
       </c>
+      <c r="T45" t="s">
+        <v>24</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="14"/>
+        <v>273.56363636363636</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="15"/>
+        <v>460.53571428571422</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="16"/>
+        <v>211.17857142857142</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="17"/>
+        <v>293.46031746031747</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="18"/>
+        <v>223.4</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="19"/>
+        <v>532.75862068965523</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="20"/>
+        <v>353.72413793103448</v>
+      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -4242,8 +5362,39 @@
       <c r="R46">
         <v>0.31</v>
       </c>
+      <c r="T46" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="14"/>
+        <v>322.13333333333333</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="15"/>
+        <v>529.03571428571422</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="16"/>
+        <v>224.06896551724139</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="17"/>
+        <v>421.82089552238801</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="18"/>
+        <v>395.75384615384615</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="19"/>
+        <v>771.12903225806451</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="20"/>
+        <v>489.48387096774195</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -4292,8 +5443,39 @@
       <c r="R47">
         <v>0.3</v>
       </c>
+      <c r="T47" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="14"/>
+        <v>310.53968253968253</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="15"/>
+        <v>859.27586206896558</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="16"/>
+        <v>279.24137931034488</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="17"/>
+        <v>576.53846153846155</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="18"/>
+        <v>452.328125</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="19"/>
+        <v>966.54545454545439</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="20"/>
+        <v>692.13333333333333</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>27</v>
       </c>
@@ -4342,8 +5524,39 @@
       <c r="R48">
         <v>0.35</v>
       </c>
+      <c r="T48" t="s">
+        <v>27</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="14"/>
+        <v>322.72499999999997</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="15"/>
+        <v>895.58064516129036</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="16"/>
+        <v>378.75757575757575</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="17"/>
+        <v>534.67532467532465</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="18"/>
+        <v>540.55384615384617</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="19"/>
+        <v>1422.5675675675677</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="20"/>
+        <v>833.97142857142853</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>28</v>
       </c>
@@ -4392,8 +5605,39 @@
       <c r="R49">
         <v>0.4</v>
       </c>
+      <c r="T49" t="s">
+        <v>28</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="14"/>
+        <v>340.62886597938149</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="15"/>
+        <v>1053.8947368421052</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="16"/>
+        <v>342.18421052631578</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="17"/>
+        <v>457.18279569892474</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="18"/>
+        <v>458.57499999999999</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="19"/>
+        <v>1436.8999999999999</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="20"/>
+        <v>999.95</v>
+      </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -4442,13 +5686,44 @@
       <c r="R50">
         <v>0.4</v>
       </c>
+      <c r="T50" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="14"/>
+        <v>352.28571428571428</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="15"/>
+        <v>1188.8974358974358</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="16"/>
+        <v>389.75675675675677</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="17"/>
+        <v>497.77319587628864</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="18"/>
+        <v>487.42352941176472</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="19"/>
+        <v>1122.8245614035088</v>
+      </c>
+      <c r="AA50">
+        <f>I50/R50</f>
+        <v>1123.675</v>
+      </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>13</v>
       </c>
@@ -4492,7 +5767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>17</v>
       </c>
@@ -4536,7 +5811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>18</v>
       </c>
@@ -4556,7 +5831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4606,7 +5881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>19</v>
       </c>
@@ -4656,7 +5931,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>20</v>
       </c>
@@ -4706,7 +5981,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -4756,7 +6031,7 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>22</v>
       </c>
@@ -4806,7 +6081,7 @@
         <v>46.51</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>23</v>
       </c>
@@ -4856,7 +6131,7 @@
         <v>44.59</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>24</v>
       </c>
@@ -4906,7 +6181,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>25</v>
       </c>
@@ -5166,7 +6441,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:I16 L6:R16">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5178,7 +6453,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:I33 L23:R33">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5190,6 +6465,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:I50 L40:R50">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:R68 C58:I68">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:AA16 AC6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U40:AA49 U23:AA33 U50:AA50">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5201,7 +6524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L58:R68 C58:I68">
+  <conditionalFormatting sqref="AC23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5213,7 +6536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
+  <conditionalFormatting sqref="AC40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16203,7 +17526,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:AJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
